--- a/Data/EC/NIT-8605145925.xlsx
+++ b/Data/EC/NIT-8605145925.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{540AF608-4EE7-44C2-B216-C8A84BE81B8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{42F0F633-A4F1-484E-8082-19B1F51033DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{86E9A5F9-9E96-446C-8599-C0D299539CB4}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{BD3235FC-855F-4C81-A3D4-5018D4D24A66}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1492" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1512" uniqueCount="140">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -71,355 +71,358 @@
     <t>RICARDO ENRIQUE SERRANO MORENO</t>
   </si>
   <si>
+    <t>1607</t>
+  </si>
+  <si>
+    <t>1102803894</t>
+  </si>
+  <si>
+    <t>IRNIS JOSE MARTINEZ MONTES</t>
+  </si>
+  <si>
+    <t>1608</t>
+  </si>
+  <si>
+    <t>1609</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>91443060</t>
+  </si>
+  <si>
+    <t>EDWIN CRESPO MOLINA</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>92189034</t>
+  </si>
+  <si>
+    <t>JAIME DE JESUS TRUJILLO NAVARRO</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>1052070217</t>
+  </si>
+  <si>
+    <t>DANIEL ISAC SALCEDO CASTRO</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
     <t>2507</t>
   </si>
   <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1612</t>
-  </si>
-  <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>1610</t>
-  </si>
-  <si>
-    <t>1609</t>
-  </si>
-  <si>
-    <t>1608</t>
-  </si>
-  <si>
-    <t>1607</t>
-  </si>
-  <si>
-    <t>92189034</t>
-  </si>
-  <si>
-    <t>JAIME DE JESUS TRUJILLO NAVARRO</t>
-  </si>
-  <si>
-    <t>91443060</t>
-  </si>
-  <si>
-    <t>EDWIN CRESPO MOLINA</t>
-  </si>
-  <si>
-    <t>1052070217</t>
-  </si>
-  <si>
-    <t>DANIEL ISAC SALCEDO CASTRO</t>
-  </si>
-  <si>
-    <t>1102803894</t>
-  </si>
-  <si>
-    <t>IRNIS JOSE MARTINEZ MONTES</t>
+    <t>2508</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -518,7 +521,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -531,9 +536,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -733,23 +736,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -777,10 +780,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -833,7 +836,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8870936-E67E-A46F-8702-6F311CDBB7AC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A852554-BE16-674C-479F-CF9E9D797BFC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1184,8 +1187,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEB4675C-47DD-43A4-84B0-C6E5A001ABBB}">
-  <dimension ref="B2:J389"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5BBD8FE-2D64-46D3-9E46-EB53149AE935}">
+  <dimension ref="B2:J394"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1209,7 +1212,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1254,7 +1257,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1286,12 +1289,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>11995002</v>
+        <v>12186920</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1302,17 +1305,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C13" s="5">
         <v>5</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F13" s="5">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1339,13 +1342,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="I15" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="I15" s="13" t="s">
-        <v>133</v>
-      </c>
       <c r="J15" s="14" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1362,7 +1365,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G16" s="18">
         <v>781242</v>
@@ -1376,16 +1379,16 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G17" s="18">
         <v>781242</v>
@@ -1405,10 +1408,10 @@
         <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F18" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G18" s="18">
         <v>781242</v>
@@ -1422,16 +1425,16 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G19" s="18">
         <v>781242</v>
@@ -1454,7 +1457,7 @@
         <v>15</v>
       </c>
       <c r="F20" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G20" s="18">
         <v>781242</v>
@@ -1468,16 +1471,16 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F21" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G21" s="18">
         <v>781242</v>
@@ -1497,10 +1500,10 @@
         <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F22" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G22" s="18">
         <v>781242</v>
@@ -1514,16 +1517,16 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F23" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G23" s="18">
         <v>781242</v>
@@ -1543,10 +1546,10 @@
         <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F24" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G24" s="18">
         <v>781242</v>
@@ -1560,16 +1563,16 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F25" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G25" s="18">
         <v>781242</v>
@@ -1589,10 +1592,10 @@
         <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F26" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G26" s="18">
         <v>781242</v>
@@ -1606,16 +1609,16 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F27" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G27" s="18">
         <v>781242</v>
@@ -1635,10 +1638,10 @@
         <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F28" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G28" s="18">
         <v>781242</v>
@@ -1652,16 +1655,16 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F29" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G29" s="18">
         <v>781242</v>
@@ -1681,10 +1684,10 @@
         <v>10</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F30" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G30" s="18">
         <v>781242</v>
@@ -1698,16 +1701,16 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F31" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G31" s="18">
         <v>781242</v>
@@ -1727,10 +1730,10 @@
         <v>10</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F32" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G32" s="18">
         <v>781242</v>
@@ -1744,16 +1747,16 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F33" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G33" s="18">
         <v>781242</v>
@@ -1773,10 +1776,10 @@
         <v>10</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F34" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G34" s="18">
         <v>781242</v>
@@ -1790,16 +1793,16 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F35" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G35" s="18">
         <v>781242</v>
@@ -1819,10 +1822,10 @@
         <v>10</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="F36" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G36" s="18">
         <v>781242</v>
@@ -1836,16 +1839,16 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="F37" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G37" s="18">
         <v>781242</v>
@@ -1865,10 +1868,10 @@
         <v>10</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="F38" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G38" s="18">
         <v>781242</v>
@@ -1882,16 +1885,16 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="F39" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G39" s="18">
         <v>781242</v>
@@ -1911,10 +1914,10 @@
         <v>10</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="F40" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G40" s="18">
         <v>781242</v>
@@ -1928,16 +1931,16 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="F41" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G41" s="18">
         <v>781242</v>
@@ -1957,10 +1960,10 @@
         <v>10</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="F42" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G42" s="18">
         <v>781242</v>
@@ -1974,16 +1977,16 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="F43" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G43" s="18">
         <v>781242</v>
@@ -2003,10 +2006,10 @@
         <v>10</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="F44" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G44" s="18">
         <v>781242</v>
@@ -2020,16 +2023,16 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="F45" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G45" s="18">
         <v>781242</v>
@@ -2049,10 +2052,10 @@
         <v>10</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="F46" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G46" s="18">
         <v>781242</v>
@@ -2066,16 +2069,16 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="F47" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G47" s="18">
         <v>781242</v>
@@ -2095,10 +2098,10 @@
         <v>10</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="F48" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G48" s="18">
         <v>781242</v>
@@ -2112,16 +2115,16 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="F49" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G49" s="18">
         <v>781242</v>
@@ -2141,10 +2144,10 @@
         <v>10</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="F50" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G50" s="18">
         <v>781242</v>
@@ -2158,16 +2161,16 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="F51" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G51" s="18">
         <v>781242</v>
@@ -2187,10 +2190,10 @@
         <v>10</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="F52" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G52" s="18">
         <v>781242</v>
@@ -2204,16 +2207,16 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="F53" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G53" s="18">
         <v>781242</v>
@@ -2233,10 +2236,10 @@
         <v>10</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="F54" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G54" s="18">
         <v>781242</v>
@@ -2250,16 +2253,16 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="F55" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G55" s="18">
         <v>781242</v>
@@ -2279,10 +2282,10 @@
         <v>10</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="F56" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G56" s="18">
         <v>781242</v>
@@ -2296,16 +2299,16 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="F57" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G57" s="18">
         <v>781242</v>
@@ -2325,10 +2328,10 @@
         <v>10</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="F58" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G58" s="18">
         <v>781242</v>
@@ -2342,16 +2345,16 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="F59" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G59" s="18">
         <v>781242</v>
@@ -2371,10 +2374,10 @@
         <v>10</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="F60" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G60" s="18">
         <v>781242</v>
@@ -2388,16 +2391,16 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="F61" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G61" s="18">
         <v>781242</v>
@@ -2417,10 +2420,10 @@
         <v>10</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="F62" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G62" s="18">
         <v>781242</v>
@@ -2434,16 +2437,16 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="F63" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G63" s="18">
         <v>781242</v>
@@ -2463,10 +2466,10 @@
         <v>10</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="F64" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G64" s="18">
         <v>781242</v>
@@ -2480,16 +2483,16 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="F65" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G65" s="18">
         <v>781242</v>
@@ -2509,10 +2512,10 @@
         <v>10</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="F66" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G66" s="18">
         <v>781242</v>
@@ -2526,16 +2529,16 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="F67" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G67" s="18">
         <v>781242</v>
@@ -2555,7 +2558,7 @@
         <v>10</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="F68" s="18">
         <v>31249</v>
@@ -2572,13 +2575,13 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="F69" s="18">
         <v>31249</v>
@@ -2601,7 +2604,7 @@
         <v>10</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="F70" s="18">
         <v>31249</v>
@@ -2618,13 +2621,13 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="F71" s="18">
         <v>31249</v>
@@ -2647,7 +2650,7 @@
         <v>10</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="F72" s="18">
         <v>31249</v>
@@ -2664,13 +2667,13 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="F73" s="18">
         <v>31249</v>
@@ -2693,7 +2696,7 @@
         <v>10</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="F74" s="18">
         <v>31249</v>
@@ -2710,13 +2713,13 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="F75" s="18">
         <v>31249</v>
@@ -2739,7 +2742,7 @@
         <v>10</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="F76" s="18">
         <v>31249</v>
@@ -2756,13 +2759,13 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="F77" s="18">
         <v>31249</v>
@@ -2785,7 +2788,7 @@
         <v>10</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="F78" s="18">
         <v>31249</v>
@@ -2802,13 +2805,13 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="F79" s="18">
         <v>31249</v>
@@ -2831,7 +2834,7 @@
         <v>10</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="F80" s="18">
         <v>31249</v>
@@ -2848,13 +2851,13 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="F81" s="18">
         <v>31249</v>
@@ -2877,7 +2880,7 @@
         <v>10</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="F82" s="18">
         <v>31249</v>
@@ -2894,13 +2897,13 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="F83" s="18">
         <v>31249</v>
@@ -2923,7 +2926,7 @@
         <v>10</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="F84" s="18">
         <v>31249</v>
@@ -2940,19 +2943,19 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="F85" s="18">
-        <v>31249</v>
+        <v>34520</v>
       </c>
       <c r="G85" s="18">
-        <v>781242</v>
+        <v>906000</v>
       </c>
       <c r="H85" s="19"/>
       <c r="I85" s="19"/>
@@ -2963,13 +2966,13 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>81</v>
+        <v>47</v>
       </c>
       <c r="F86" s="18">
         <v>31249</v>
@@ -2992,7 +2995,7 @@
         <v>10</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="F87" s="18">
         <v>31249</v>
@@ -3009,19 +3012,19 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="F88" s="18">
-        <v>31249</v>
+        <v>34520</v>
       </c>
       <c r="G88" s="18">
-        <v>781242</v>
+        <v>906000</v>
       </c>
       <c r="H88" s="19"/>
       <c r="I88" s="19"/>
@@ -3032,13 +3035,13 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="F89" s="18">
         <v>31249</v>
@@ -3061,7 +3064,7 @@
         <v>10</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="F90" s="18">
         <v>31249</v>
@@ -3078,19 +3081,19 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>86</v>
+        <v>51</v>
       </c>
       <c r="F91" s="18">
-        <v>31249</v>
+        <v>34520</v>
       </c>
       <c r="G91" s="18">
-        <v>781242</v>
+        <v>906000</v>
       </c>
       <c r="H91" s="19"/>
       <c r="I91" s="19"/>
@@ -3101,13 +3104,13 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>87</v>
+        <v>51</v>
       </c>
       <c r="F92" s="18">
         <v>31249</v>
@@ -3130,7 +3133,7 @@
         <v>10</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="F93" s="18">
         <v>31249</v>
@@ -3147,19 +3150,19 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="F94" s="18">
-        <v>31249</v>
+        <v>34520</v>
       </c>
       <c r="G94" s="18">
-        <v>781242</v>
+        <v>906000</v>
       </c>
       <c r="H94" s="19"/>
       <c r="I94" s="19"/>
@@ -3170,13 +3173,13 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>90</v>
+        <v>52</v>
       </c>
       <c r="F95" s="18">
         <v>31249</v>
@@ -3199,7 +3202,7 @@
         <v>10</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>91</v>
+        <v>53</v>
       </c>
       <c r="F96" s="18">
         <v>31249</v>
@@ -3216,19 +3219,19 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="F97" s="18">
-        <v>31249</v>
+        <v>36240</v>
       </c>
       <c r="G97" s="18">
-        <v>781242</v>
+        <v>906000</v>
       </c>
       <c r="H97" s="19"/>
       <c r="I97" s="19"/>
@@ -3239,19 +3242,19 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="F98" s="18">
-        <v>31249</v>
+        <v>34520</v>
       </c>
       <c r="G98" s="18">
-        <v>781242</v>
+        <v>906000</v>
       </c>
       <c r="H98" s="19"/>
       <c r="I98" s="19"/>
@@ -3262,16 +3265,16 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>94</v>
+        <v>53</v>
       </c>
       <c r="F99" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G99" s="18">
         <v>781242</v>
@@ -3291,10 +3294,10 @@
         <v>10</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>95</v>
+        <v>56</v>
       </c>
       <c r="F100" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G100" s="18">
         <v>781242</v>
@@ -3308,19 +3311,19 @@
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>96</v>
+        <v>56</v>
       </c>
       <c r="F101" s="18">
-        <v>27578</v>
+        <v>36240</v>
       </c>
       <c r="G101" s="18">
-        <v>781242</v>
+        <v>906000</v>
       </c>
       <c r="H101" s="19"/>
       <c r="I101" s="19"/>
@@ -3331,19 +3334,19 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>97</v>
+        <v>56</v>
       </c>
       <c r="F102" s="18">
-        <v>27578</v>
+        <v>34520</v>
       </c>
       <c r="G102" s="18">
-        <v>781242</v>
+        <v>906000</v>
       </c>
       <c r="H102" s="19"/>
       <c r="I102" s="19"/>
@@ -3354,16 +3357,16 @@
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>98</v>
+        <v>56</v>
       </c>
       <c r="F103" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G103" s="18">
         <v>781242</v>
@@ -3383,10 +3386,10 @@
         <v>10</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>99</v>
+        <v>57</v>
       </c>
       <c r="F104" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G104" s="18">
         <v>781242</v>
@@ -3400,19 +3403,19 @@
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="F105" s="18">
-        <v>27578</v>
+        <v>36240</v>
       </c>
       <c r="G105" s="18">
-        <v>781242</v>
+        <v>906000</v>
       </c>
       <c r="H105" s="19"/>
       <c r="I105" s="19"/>
@@ -3423,19 +3426,19 @@
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>101</v>
+        <v>57</v>
       </c>
       <c r="F106" s="18">
-        <v>27578</v>
+        <v>34520</v>
       </c>
       <c r="G106" s="18">
-        <v>781242</v>
+        <v>906000</v>
       </c>
       <c r="H106" s="19"/>
       <c r="I106" s="19"/>
@@ -3446,16 +3449,16 @@
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>102</v>
+        <v>57</v>
       </c>
       <c r="F107" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G107" s="18">
         <v>781242</v>
@@ -3475,10 +3478,10 @@
         <v>10</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>103</v>
+        <v>58</v>
       </c>
       <c r="F108" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G108" s="18">
         <v>781242</v>
@@ -3492,19 +3495,19 @@
         <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>104</v>
+        <v>58</v>
       </c>
       <c r="F109" s="18">
-        <v>27578</v>
+        <v>36240</v>
       </c>
       <c r="G109" s="18">
-        <v>781242</v>
+        <v>906000</v>
       </c>
       <c r="H109" s="19"/>
       <c r="I109" s="19"/>
@@ -3515,19 +3518,19 @@
         <v>8</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>105</v>
+        <v>58</v>
       </c>
       <c r="F110" s="18">
-        <v>27578</v>
+        <v>34520</v>
       </c>
       <c r="G110" s="18">
-        <v>781242</v>
+        <v>906000</v>
       </c>
       <c r="H110" s="19"/>
       <c r="I110" s="19"/>
@@ -3538,16 +3541,16 @@
         <v>8</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>106</v>
+        <v>58</v>
       </c>
       <c r="F111" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G111" s="18">
         <v>781242</v>
@@ -3567,10 +3570,10 @@
         <v>10</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>107</v>
+        <v>59</v>
       </c>
       <c r="F112" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G112" s="18">
         <v>781242</v>
@@ -3584,19 +3587,19 @@
         <v>8</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>108</v>
+        <v>59</v>
       </c>
       <c r="F113" s="18">
-        <v>27578</v>
+        <v>36240</v>
       </c>
       <c r="G113" s="18">
-        <v>781242</v>
+        <v>906000</v>
       </c>
       <c r="H113" s="19"/>
       <c r="I113" s="19"/>
@@ -3607,19 +3610,19 @@
         <v>8</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>109</v>
+        <v>59</v>
       </c>
       <c r="F114" s="18">
-        <v>27578</v>
+        <v>34520</v>
       </c>
       <c r="G114" s="18">
-        <v>781242</v>
+        <v>906000</v>
       </c>
       <c r="H114" s="19"/>
       <c r="I114" s="19"/>
@@ -3630,16 +3633,16 @@
         <v>8</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>110</v>
+        <v>59</v>
       </c>
       <c r="F115" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G115" s="18">
         <v>781242</v>
@@ -3659,10 +3662,10 @@
         <v>10</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>111</v>
+        <v>60</v>
       </c>
       <c r="F116" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G116" s="18">
         <v>781242</v>
@@ -3676,19 +3679,19 @@
         <v>8</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>112</v>
+        <v>60</v>
       </c>
       <c r="F117" s="18">
-        <v>27578</v>
+        <v>36240</v>
       </c>
       <c r="G117" s="18">
-        <v>781242</v>
+        <v>906000</v>
       </c>
       <c r="H117" s="19"/>
       <c r="I117" s="19"/>
@@ -3699,19 +3702,19 @@
         <v>8</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>113</v>
+        <v>60</v>
       </c>
       <c r="F118" s="18">
-        <v>27578</v>
+        <v>34520</v>
       </c>
       <c r="G118" s="18">
-        <v>781242</v>
+        <v>906000</v>
       </c>
       <c r="H118" s="19"/>
       <c r="I118" s="19"/>
@@ -3722,16 +3725,16 @@
         <v>8</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>114</v>
+        <v>60</v>
       </c>
       <c r="F119" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G119" s="18">
         <v>781242</v>
@@ -3751,10 +3754,10 @@
         <v>10</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>115</v>
+        <v>61</v>
       </c>
       <c r="F120" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G120" s="18">
         <v>781242</v>
@@ -3768,19 +3771,19 @@
         <v>8</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>116</v>
+        <v>61</v>
       </c>
       <c r="F121" s="18">
-        <v>27578</v>
+        <v>36240</v>
       </c>
       <c r="G121" s="18">
-        <v>781242</v>
+        <v>906000</v>
       </c>
       <c r="H121" s="19"/>
       <c r="I121" s="19"/>
@@ -3791,19 +3794,19 @@
         <v>8</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="E122" s="16" t="s">
-        <v>117</v>
+        <v>61</v>
       </c>
       <c r="F122" s="18">
-        <v>27578</v>
+        <v>34520</v>
       </c>
       <c r="G122" s="18">
-        <v>781242</v>
+        <v>906000</v>
       </c>
       <c r="H122" s="19"/>
       <c r="I122" s="19"/>
@@ -3814,16 +3817,16 @@
         <v>8</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>118</v>
+        <v>61</v>
       </c>
       <c r="F123" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G123" s="18">
         <v>781242</v>
@@ -3843,10 +3846,10 @@
         <v>10</v>
       </c>
       <c r="E124" s="16" t="s">
-        <v>119</v>
+        <v>62</v>
       </c>
       <c r="F124" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G124" s="18">
         <v>781242</v>
@@ -3860,13 +3863,13 @@
         <v>8</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>120</v>
+        <v>54</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>121</v>
+        <v>55</v>
       </c>
       <c r="E125" s="16" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="F125" s="18">
         <v>36240</v>
@@ -3883,16 +3886,16 @@
         <v>8</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>120</v>
+        <v>48</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>121</v>
+        <v>49</v>
       </c>
       <c r="E126" s="16" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="F126" s="18">
-        <v>36240</v>
+        <v>34520</v>
       </c>
       <c r="G126" s="18">
         <v>906000</v>
@@ -3906,19 +3909,19 @@
         <v>8</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="D127" s="17" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="E127" s="16" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="F127" s="18">
-        <v>36240</v>
+        <v>31249</v>
       </c>
       <c r="G127" s="18">
-        <v>906000</v>
+        <v>781242</v>
       </c>
       <c r="H127" s="19"/>
       <c r="I127" s="19"/>
@@ -3929,19 +3932,19 @@
         <v>8</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="D128" s="17" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="E128" s="16" t="s">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="F128" s="18">
-        <v>36240</v>
+        <v>31249</v>
       </c>
       <c r="G128" s="18">
-        <v>906000</v>
+        <v>781242</v>
       </c>
       <c r="H128" s="19"/>
       <c r="I128" s="19"/>
@@ -3952,13 +3955,13 @@
         <v>8</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>120</v>
+        <v>54</v>
       </c>
       <c r="D129" s="17" t="s">
-        <v>121</v>
+        <v>55</v>
       </c>
       <c r="E129" s="16" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="F129" s="18">
         <v>36240</v>
@@ -3975,16 +3978,16 @@
         <v>8</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>120</v>
+        <v>48</v>
       </c>
       <c r="D130" s="17" t="s">
-        <v>121</v>
+        <v>49</v>
       </c>
       <c r="E130" s="16" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="F130" s="18">
-        <v>36240</v>
+        <v>34520</v>
       </c>
       <c r="G130" s="18">
         <v>906000</v>
@@ -3998,19 +4001,19 @@
         <v>8</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="D131" s="17" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="E131" s="16" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="F131" s="18">
-        <v>36240</v>
+        <v>31249</v>
       </c>
       <c r="G131" s="18">
-        <v>906000</v>
+        <v>781242</v>
       </c>
       <c r="H131" s="19"/>
       <c r="I131" s="19"/>
@@ -4021,19 +4024,19 @@
         <v>8</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="D132" s="17" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="E132" s="16" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="F132" s="18">
-        <v>36240</v>
+        <v>31249</v>
       </c>
       <c r="G132" s="18">
-        <v>906000</v>
+        <v>781242</v>
       </c>
       <c r="H132" s="19"/>
       <c r="I132" s="19"/>
@@ -4044,13 +4047,13 @@
         <v>8</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>120</v>
+        <v>54</v>
       </c>
       <c r="D133" s="17" t="s">
-        <v>121</v>
+        <v>55</v>
       </c>
       <c r="E133" s="16" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="F133" s="18">
         <v>36240</v>
@@ -4067,16 +4070,16 @@
         <v>8</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>120</v>
+        <v>48</v>
       </c>
       <c r="D134" s="17" t="s">
-        <v>121</v>
+        <v>49</v>
       </c>
       <c r="E134" s="16" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="F134" s="18">
-        <v>36240</v>
+        <v>34520</v>
       </c>
       <c r="G134" s="18">
         <v>906000</v>
@@ -4090,19 +4093,19 @@
         <v>8</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="D135" s="17" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="E135" s="16" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="F135" s="18">
-        <v>36240</v>
+        <v>31249</v>
       </c>
       <c r="G135" s="18">
-        <v>906000</v>
+        <v>781242</v>
       </c>
       <c r="H135" s="19"/>
       <c r="I135" s="19"/>
@@ -4113,19 +4116,19 @@
         <v>8</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="E136" s="16" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="F136" s="18">
-        <v>36240</v>
+        <v>31249</v>
       </c>
       <c r="G136" s="18">
-        <v>906000</v>
+        <v>781242</v>
       </c>
       <c r="H136" s="19"/>
       <c r="I136" s="19"/>
@@ -4136,13 +4139,13 @@
         <v>8</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>120</v>
+        <v>54</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>121</v>
+        <v>55</v>
       </c>
       <c r="E137" s="16" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="F137" s="18">
         <v>36240</v>
@@ -4159,16 +4162,16 @@
         <v>8</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>120</v>
+        <v>48</v>
       </c>
       <c r="D138" s="17" t="s">
-        <v>121</v>
+        <v>49</v>
       </c>
       <c r="E138" s="16" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="F138" s="18">
-        <v>36240</v>
+        <v>34520</v>
       </c>
       <c r="G138" s="18">
         <v>906000</v>
@@ -4182,19 +4185,19 @@
         <v>8</v>
       </c>
       <c r="C139" s="16" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="D139" s="17" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="E139" s="16" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="F139" s="18">
-        <v>36240</v>
+        <v>31249</v>
       </c>
       <c r="G139" s="18">
-        <v>906000</v>
+        <v>781242</v>
       </c>
       <c r="H139" s="19"/>
       <c r="I139" s="19"/>
@@ -4205,19 +4208,19 @@
         <v>8</v>
       </c>
       <c r="C140" s="16" t="s">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="D140" s="17" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="E140" s="16" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="F140" s="18">
-        <v>36240</v>
+        <v>31249</v>
       </c>
       <c r="G140" s="18">
-        <v>906000</v>
+        <v>781242</v>
       </c>
       <c r="H140" s="19"/>
       <c r="I140" s="19"/>
@@ -4228,13 +4231,13 @@
         <v>8</v>
       </c>
       <c r="C141" s="16" t="s">
-        <v>120</v>
+        <v>54</v>
       </c>
       <c r="D141" s="17" t="s">
-        <v>121</v>
+        <v>55</v>
       </c>
       <c r="E141" s="16" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="F141" s="18">
         <v>36240</v>
@@ -4251,16 +4254,16 @@
         <v>8</v>
       </c>
       <c r="C142" s="16" t="s">
-        <v>120</v>
+        <v>48</v>
       </c>
       <c r="D142" s="17" t="s">
-        <v>121</v>
+        <v>49</v>
       </c>
       <c r="E142" s="16" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="F142" s="18">
-        <v>36240</v>
+        <v>34520</v>
       </c>
       <c r="G142" s="18">
         <v>906000</v>
@@ -4274,19 +4277,19 @@
         <v>8</v>
       </c>
       <c r="C143" s="16" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="D143" s="17" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="E143" s="16" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="F143" s="18">
-        <v>36240</v>
+        <v>31249</v>
       </c>
       <c r="G143" s="18">
-        <v>906000</v>
+        <v>781242</v>
       </c>
       <c r="H143" s="19"/>
       <c r="I143" s="19"/>
@@ -4297,19 +4300,19 @@
         <v>8</v>
       </c>
       <c r="C144" s="16" t="s">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="D144" s="17" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="E144" s="16" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="F144" s="18">
-        <v>36240</v>
+        <v>31249</v>
       </c>
       <c r="G144" s="18">
-        <v>906000</v>
+        <v>781242</v>
       </c>
       <c r="H144" s="19"/>
       <c r="I144" s="19"/>
@@ -4320,13 +4323,13 @@
         <v>8</v>
       </c>
       <c r="C145" s="16" t="s">
-        <v>120</v>
+        <v>54</v>
       </c>
       <c r="D145" s="17" t="s">
-        <v>121</v>
+        <v>55</v>
       </c>
       <c r="E145" s="16" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="F145" s="18">
         <v>36240</v>
@@ -4343,16 +4346,16 @@
         <v>8</v>
       </c>
       <c r="C146" s="16" t="s">
-        <v>120</v>
+        <v>48</v>
       </c>
       <c r="D146" s="17" t="s">
-        <v>121</v>
+        <v>49</v>
       </c>
       <c r="E146" s="16" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="F146" s="18">
-        <v>36240</v>
+        <v>34520</v>
       </c>
       <c r="G146" s="18">
         <v>906000</v>
@@ -4366,19 +4369,19 @@
         <v>8</v>
       </c>
       <c r="C147" s="16" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="D147" s="17" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="E147" s="16" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="F147" s="18">
-        <v>36240</v>
+        <v>31249</v>
       </c>
       <c r="G147" s="18">
-        <v>906000</v>
+        <v>781242</v>
       </c>
       <c r="H147" s="19"/>
       <c r="I147" s="19"/>
@@ -4389,19 +4392,19 @@
         <v>8</v>
       </c>
       <c r="C148" s="16" t="s">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="D148" s="17" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="E148" s="16" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="F148" s="18">
-        <v>36240</v>
+        <v>31249</v>
       </c>
       <c r="G148" s="18">
-        <v>906000</v>
+        <v>781242</v>
       </c>
       <c r="H148" s="19"/>
       <c r="I148" s="19"/>
@@ -4412,13 +4415,13 @@
         <v>8</v>
       </c>
       <c r="C149" s="16" t="s">
-        <v>120</v>
+        <v>54</v>
       </c>
       <c r="D149" s="17" t="s">
-        <v>121</v>
+        <v>55</v>
       </c>
       <c r="E149" s="16" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="F149" s="18">
         <v>36240</v>
@@ -4435,16 +4438,16 @@
         <v>8</v>
       </c>
       <c r="C150" s="16" t="s">
-        <v>120</v>
+        <v>48</v>
       </c>
       <c r="D150" s="17" t="s">
-        <v>121</v>
+        <v>49</v>
       </c>
       <c r="E150" s="16" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="F150" s="18">
-        <v>36240</v>
+        <v>34520</v>
       </c>
       <c r="G150" s="18">
         <v>906000</v>
@@ -4458,19 +4461,19 @@
         <v>8</v>
       </c>
       <c r="C151" s="16" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="D151" s="17" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="E151" s="16" t="s">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="F151" s="18">
-        <v>36240</v>
+        <v>31249</v>
       </c>
       <c r="G151" s="18">
-        <v>906000</v>
+        <v>781242</v>
       </c>
       <c r="H151" s="19"/>
       <c r="I151" s="19"/>
@@ -4481,19 +4484,19 @@
         <v>8</v>
       </c>
       <c r="C152" s="16" t="s">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="D152" s="17" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="E152" s="16" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="F152" s="18">
-        <v>36240</v>
+        <v>31249</v>
       </c>
       <c r="G152" s="18">
-        <v>906000</v>
+        <v>781242</v>
       </c>
       <c r="H152" s="19"/>
       <c r="I152" s="19"/>
@@ -4504,13 +4507,13 @@
         <v>8</v>
       </c>
       <c r="C153" s="16" t="s">
-        <v>120</v>
+        <v>54</v>
       </c>
       <c r="D153" s="17" t="s">
-        <v>121</v>
+        <v>55</v>
       </c>
       <c r="E153" s="16" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="F153" s="18">
         <v>36240</v>
@@ -4527,16 +4530,16 @@
         <v>8</v>
       </c>
       <c r="C154" s="16" t="s">
-        <v>120</v>
+        <v>48</v>
       </c>
       <c r="D154" s="17" t="s">
-        <v>121</v>
+        <v>49</v>
       </c>
       <c r="E154" s="16" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="F154" s="18">
-        <v>36240</v>
+        <v>34520</v>
       </c>
       <c r="G154" s="18">
         <v>906000</v>
@@ -4550,19 +4553,19 @@
         <v>8</v>
       </c>
       <c r="C155" s="16" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="D155" s="17" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="E155" s="16" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="F155" s="18">
-        <v>36240</v>
+        <v>31249</v>
       </c>
       <c r="G155" s="18">
-        <v>906000</v>
+        <v>781242</v>
       </c>
       <c r="H155" s="19"/>
       <c r="I155" s="19"/>
@@ -4573,19 +4576,19 @@
         <v>8</v>
       </c>
       <c r="C156" s="16" t="s">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="D156" s="17" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="E156" s="16" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="F156" s="18">
-        <v>36240</v>
+        <v>31249</v>
       </c>
       <c r="G156" s="18">
-        <v>906000</v>
+        <v>781242</v>
       </c>
       <c r="H156" s="19"/>
       <c r="I156" s="19"/>
@@ -4596,13 +4599,13 @@
         <v>8</v>
       </c>
       <c r="C157" s="16" t="s">
-        <v>120</v>
+        <v>54</v>
       </c>
       <c r="D157" s="17" t="s">
-        <v>121</v>
+        <v>55</v>
       </c>
       <c r="E157" s="16" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="F157" s="18">
         <v>36240</v>
@@ -4619,16 +4622,16 @@
         <v>8</v>
       </c>
       <c r="C158" s="16" t="s">
-        <v>120</v>
+        <v>48</v>
       </c>
       <c r="D158" s="17" t="s">
-        <v>121</v>
+        <v>49</v>
       </c>
       <c r="E158" s="16" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="F158" s="18">
-        <v>36240</v>
+        <v>34520</v>
       </c>
       <c r="G158" s="18">
         <v>906000</v>
@@ -4642,19 +4645,19 @@
         <v>8</v>
       </c>
       <c r="C159" s="16" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="D159" s="17" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="E159" s="16" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="F159" s="18">
-        <v>36240</v>
+        <v>31249</v>
       </c>
       <c r="G159" s="18">
-        <v>906000</v>
+        <v>781242</v>
       </c>
       <c r="H159" s="19"/>
       <c r="I159" s="19"/>
@@ -4665,19 +4668,19 @@
         <v>8</v>
       </c>
       <c r="C160" s="16" t="s">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="D160" s="17" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="E160" s="16" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="F160" s="18">
-        <v>36240</v>
+        <v>31249</v>
       </c>
       <c r="G160" s="18">
-        <v>906000</v>
+        <v>781242</v>
       </c>
       <c r="H160" s="19"/>
       <c r="I160" s="19"/>
@@ -4688,13 +4691,13 @@
         <v>8</v>
       </c>
       <c r="C161" s="16" t="s">
-        <v>120</v>
+        <v>54</v>
       </c>
       <c r="D161" s="17" t="s">
-        <v>121</v>
+        <v>55</v>
       </c>
       <c r="E161" s="16" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="F161" s="18">
         <v>36240</v>
@@ -4711,16 +4714,16 @@
         <v>8</v>
       </c>
       <c r="C162" s="16" t="s">
-        <v>120</v>
+        <v>48</v>
       </c>
       <c r="D162" s="17" t="s">
-        <v>121</v>
+        <v>49</v>
       </c>
       <c r="E162" s="16" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="F162" s="18">
-        <v>36240</v>
+        <v>34520</v>
       </c>
       <c r="G162" s="18">
         <v>906000</v>
@@ -4734,19 +4737,19 @@
         <v>8</v>
       </c>
       <c r="C163" s="16" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="D163" s="17" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="E163" s="16" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="F163" s="18">
-        <v>36240</v>
+        <v>31249</v>
       </c>
       <c r="G163" s="18">
-        <v>906000</v>
+        <v>781242</v>
       </c>
       <c r="H163" s="19"/>
       <c r="I163" s="19"/>
@@ -4757,19 +4760,19 @@
         <v>8</v>
       </c>
       <c r="C164" s="16" t="s">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="D164" s="17" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="E164" s="16" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="F164" s="18">
-        <v>36240</v>
+        <v>31249</v>
       </c>
       <c r="G164" s="18">
-        <v>906000</v>
+        <v>781242</v>
       </c>
       <c r="H164" s="19"/>
       <c r="I164" s="19"/>
@@ -4780,13 +4783,13 @@
         <v>8</v>
       </c>
       <c r="C165" s="16" t="s">
-        <v>120</v>
+        <v>54</v>
       </c>
       <c r="D165" s="17" t="s">
-        <v>121</v>
+        <v>55</v>
       </c>
       <c r="E165" s="16" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="F165" s="18">
         <v>36240</v>
@@ -4803,16 +4806,16 @@
         <v>8</v>
       </c>
       <c r="C166" s="16" t="s">
-        <v>120</v>
+        <v>48</v>
       </c>
       <c r="D166" s="17" t="s">
-        <v>121</v>
+        <v>49</v>
       </c>
       <c r="E166" s="16" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="F166" s="18">
-        <v>36240</v>
+        <v>34520</v>
       </c>
       <c r="G166" s="18">
         <v>906000</v>
@@ -4826,19 +4829,19 @@
         <v>8</v>
       </c>
       <c r="C167" s="16" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="D167" s="17" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="E167" s="16" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="F167" s="18">
-        <v>36240</v>
+        <v>31249</v>
       </c>
       <c r="G167" s="18">
-        <v>906000</v>
+        <v>781242</v>
       </c>
       <c r="H167" s="19"/>
       <c r="I167" s="19"/>
@@ -4849,19 +4852,19 @@
         <v>8</v>
       </c>
       <c r="C168" s="16" t="s">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="D168" s="17" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="E168" s="16" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="F168" s="18">
-        <v>36240</v>
+        <v>31249</v>
       </c>
       <c r="G168" s="18">
-        <v>906000</v>
+        <v>781242</v>
       </c>
       <c r="H168" s="19"/>
       <c r="I168" s="19"/>
@@ -4872,13 +4875,13 @@
         <v>8</v>
       </c>
       <c r="C169" s="16" t="s">
-        <v>120</v>
+        <v>54</v>
       </c>
       <c r="D169" s="17" t="s">
-        <v>121</v>
+        <v>55</v>
       </c>
       <c r="E169" s="16" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="F169" s="18">
         <v>36240</v>
@@ -4895,16 +4898,16 @@
         <v>8</v>
       </c>
       <c r="C170" s="16" t="s">
-        <v>120</v>
+        <v>48</v>
       </c>
       <c r="D170" s="17" t="s">
-        <v>121</v>
+        <v>49</v>
       </c>
       <c r="E170" s="16" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="F170" s="18">
-        <v>36240</v>
+        <v>34520</v>
       </c>
       <c r="G170" s="18">
         <v>906000</v>
@@ -4918,19 +4921,19 @@
         <v>8</v>
       </c>
       <c r="C171" s="16" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="D171" s="17" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="E171" s="16" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="F171" s="18">
-        <v>36240</v>
+        <v>31249</v>
       </c>
       <c r="G171" s="18">
-        <v>906000</v>
+        <v>781242</v>
       </c>
       <c r="H171" s="19"/>
       <c r="I171" s="19"/>
@@ -4941,19 +4944,19 @@
         <v>8</v>
       </c>
       <c r="C172" s="16" t="s">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="D172" s="17" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="E172" s="16" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="F172" s="18">
-        <v>36240</v>
+        <v>31249</v>
       </c>
       <c r="G172" s="18">
-        <v>906000</v>
+        <v>781242</v>
       </c>
       <c r="H172" s="19"/>
       <c r="I172" s="19"/>
@@ -4964,13 +4967,13 @@
         <v>8</v>
       </c>
       <c r="C173" s="16" t="s">
-        <v>120</v>
+        <v>54</v>
       </c>
       <c r="D173" s="17" t="s">
-        <v>121</v>
+        <v>55</v>
       </c>
       <c r="E173" s="16" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="F173" s="18">
         <v>36240</v>
@@ -4987,16 +4990,16 @@
         <v>8</v>
       </c>
       <c r="C174" s="16" t="s">
-        <v>120</v>
+        <v>48</v>
       </c>
       <c r="D174" s="17" t="s">
-        <v>121</v>
+        <v>49</v>
       </c>
       <c r="E174" s="16" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="F174" s="18">
-        <v>36240</v>
+        <v>34520</v>
       </c>
       <c r="G174" s="18">
         <v>906000</v>
@@ -5010,19 +5013,19 @@
         <v>8</v>
       </c>
       <c r="C175" s="16" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="D175" s="17" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="E175" s="16" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="F175" s="18">
-        <v>36240</v>
+        <v>31249</v>
       </c>
       <c r="G175" s="18">
-        <v>906000</v>
+        <v>781242</v>
       </c>
       <c r="H175" s="19"/>
       <c r="I175" s="19"/>
@@ -5033,19 +5036,19 @@
         <v>8</v>
       </c>
       <c r="C176" s="16" t="s">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="D176" s="17" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="E176" s="16" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="F176" s="18">
-        <v>36240</v>
+        <v>31249</v>
       </c>
       <c r="G176" s="18">
-        <v>906000</v>
+        <v>781242</v>
       </c>
       <c r="H176" s="19"/>
       <c r="I176" s="19"/>
@@ -5056,13 +5059,13 @@
         <v>8</v>
       </c>
       <c r="C177" s="16" t="s">
-        <v>120</v>
+        <v>54</v>
       </c>
       <c r="D177" s="17" t="s">
-        <v>121</v>
+        <v>55</v>
       </c>
       <c r="E177" s="16" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="F177" s="18">
         <v>36240</v>
@@ -5079,16 +5082,16 @@
         <v>8</v>
       </c>
       <c r="C178" s="16" t="s">
-        <v>120</v>
+        <v>48</v>
       </c>
       <c r="D178" s="17" t="s">
-        <v>121</v>
+        <v>49</v>
       </c>
       <c r="E178" s="16" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="F178" s="18">
-        <v>36240</v>
+        <v>34520</v>
       </c>
       <c r="G178" s="18">
         <v>906000</v>
@@ -5102,19 +5105,19 @@
         <v>8</v>
       </c>
       <c r="C179" s="16" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="D179" s="17" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="E179" s="16" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="F179" s="18">
-        <v>36240</v>
+        <v>31249</v>
       </c>
       <c r="G179" s="18">
-        <v>906000</v>
+        <v>781242</v>
       </c>
       <c r="H179" s="19"/>
       <c r="I179" s="19"/>
@@ -5125,19 +5128,19 @@
         <v>8</v>
       </c>
       <c r="C180" s="16" t="s">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="D180" s="17" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="E180" s="16" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="F180" s="18">
-        <v>36240</v>
+        <v>31249</v>
       </c>
       <c r="G180" s="18">
-        <v>906000</v>
+        <v>781242</v>
       </c>
       <c r="H180" s="19"/>
       <c r="I180" s="19"/>
@@ -5148,13 +5151,13 @@
         <v>8</v>
       </c>
       <c r="C181" s="16" t="s">
-        <v>120</v>
+        <v>54</v>
       </c>
       <c r="D181" s="17" t="s">
-        <v>121</v>
+        <v>55</v>
       </c>
       <c r="E181" s="16" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="F181" s="18">
         <v>36240</v>
@@ -5171,16 +5174,16 @@
         <v>8</v>
       </c>
       <c r="C182" s="16" t="s">
-        <v>120</v>
+        <v>48</v>
       </c>
       <c r="D182" s="17" t="s">
-        <v>121</v>
+        <v>49</v>
       </c>
       <c r="E182" s="16" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="F182" s="18">
-        <v>36240</v>
+        <v>34520</v>
       </c>
       <c r="G182" s="18">
         <v>906000</v>
@@ -5194,19 +5197,19 @@
         <v>8</v>
       </c>
       <c r="C183" s="16" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="D183" s="17" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="E183" s="16" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="F183" s="18">
-        <v>36240</v>
+        <v>31249</v>
       </c>
       <c r="G183" s="18">
-        <v>906000</v>
+        <v>781242</v>
       </c>
       <c r="H183" s="19"/>
       <c r="I183" s="19"/>
@@ -5217,19 +5220,19 @@
         <v>8</v>
       </c>
       <c r="C184" s="16" t="s">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="D184" s="17" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="E184" s="16" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="F184" s="18">
-        <v>36240</v>
+        <v>31249</v>
       </c>
       <c r="G184" s="18">
-        <v>906000</v>
+        <v>781242</v>
       </c>
       <c r="H184" s="19"/>
       <c r="I184" s="19"/>
@@ -5240,13 +5243,13 @@
         <v>8</v>
       </c>
       <c r="C185" s="16" t="s">
-        <v>120</v>
+        <v>54</v>
       </c>
       <c r="D185" s="17" t="s">
-        <v>121</v>
+        <v>55</v>
       </c>
       <c r="E185" s="16" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="F185" s="18">
         <v>36240</v>
@@ -5263,16 +5266,16 @@
         <v>8</v>
       </c>
       <c r="C186" s="16" t="s">
-        <v>120</v>
+        <v>48</v>
       </c>
       <c r="D186" s="17" t="s">
-        <v>121</v>
+        <v>49</v>
       </c>
       <c r="E186" s="16" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F186" s="18">
-        <v>36240</v>
+        <v>34520</v>
       </c>
       <c r="G186" s="18">
         <v>906000</v>
@@ -5286,19 +5289,19 @@
         <v>8</v>
       </c>
       <c r="C187" s="16" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="D187" s="17" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="E187" s="16" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F187" s="18">
-        <v>36240</v>
+        <v>31249</v>
       </c>
       <c r="G187" s="18">
-        <v>906000</v>
+        <v>781242</v>
       </c>
       <c r="H187" s="19"/>
       <c r="I187" s="19"/>
@@ -5309,19 +5312,19 @@
         <v>8</v>
       </c>
       <c r="C188" s="16" t="s">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="D188" s="17" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="E188" s="16" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F188" s="18">
-        <v>36240</v>
+        <v>31249</v>
       </c>
       <c r="G188" s="18">
-        <v>906000</v>
+        <v>781242</v>
       </c>
       <c r="H188" s="19"/>
       <c r="I188" s="19"/>
@@ -5332,13 +5335,13 @@
         <v>8</v>
       </c>
       <c r="C189" s="16" t="s">
-        <v>120</v>
+        <v>54</v>
       </c>
       <c r="D189" s="17" t="s">
-        <v>121</v>
+        <v>55</v>
       </c>
       <c r="E189" s="16" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F189" s="18">
         <v>36240</v>
@@ -5355,16 +5358,16 @@
         <v>8</v>
       </c>
       <c r="C190" s="16" t="s">
-        <v>120</v>
+        <v>48</v>
       </c>
       <c r="D190" s="17" t="s">
-        <v>121</v>
+        <v>49</v>
       </c>
       <c r="E190" s="16" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F190" s="18">
-        <v>36240</v>
+        <v>34520</v>
       </c>
       <c r="G190" s="18">
         <v>906000</v>
@@ -5378,19 +5381,19 @@
         <v>8</v>
       </c>
       <c r="C191" s="16" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="D191" s="17" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="E191" s="16" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F191" s="18">
-        <v>36240</v>
+        <v>31249</v>
       </c>
       <c r="G191" s="18">
-        <v>906000</v>
+        <v>781242</v>
       </c>
       <c r="H191" s="19"/>
       <c r="I191" s="19"/>
@@ -5401,19 +5404,19 @@
         <v>8</v>
       </c>
       <c r="C192" s="16" t="s">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="D192" s="17" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="E192" s="16" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F192" s="18">
-        <v>36240</v>
+        <v>31249</v>
       </c>
       <c r="G192" s="18">
-        <v>906000</v>
+        <v>781242</v>
       </c>
       <c r="H192" s="19"/>
       <c r="I192" s="19"/>
@@ -5424,10 +5427,10 @@
         <v>8</v>
       </c>
       <c r="C193" s="16" t="s">
-        <v>120</v>
+        <v>54</v>
       </c>
       <c r="D193" s="17" t="s">
-        <v>121</v>
+        <v>55</v>
       </c>
       <c r="E193" s="16" t="s">
         <v>79</v>
@@ -5447,16 +5450,16 @@
         <v>8</v>
       </c>
       <c r="C194" s="16" t="s">
-        <v>120</v>
+        <v>48</v>
       </c>
       <c r="D194" s="17" t="s">
-        <v>121</v>
+        <v>49</v>
       </c>
       <c r="E194" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F194" s="18">
-        <v>36240</v>
+        <v>34520</v>
       </c>
       <c r="G194" s="18">
         <v>906000</v>
@@ -5470,19 +5473,19 @@
         <v>8</v>
       </c>
       <c r="C195" s="16" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="D195" s="17" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="E195" s="16" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F195" s="18">
-        <v>36240</v>
+        <v>31249</v>
       </c>
       <c r="G195" s="18">
-        <v>906000</v>
+        <v>781242</v>
       </c>
       <c r="H195" s="19"/>
       <c r="I195" s="19"/>
@@ -5493,19 +5496,19 @@
         <v>8</v>
       </c>
       <c r="C196" s="16" t="s">
-        <v>122</v>
+        <v>9</v>
       </c>
       <c r="D196" s="17" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="E196" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F196" s="18">
-        <v>36240</v>
+        <v>31249</v>
       </c>
       <c r="G196" s="18">
-        <v>906000</v>
+        <v>781242</v>
       </c>
       <c r="H196" s="19"/>
       <c r="I196" s="19"/>
@@ -5516,13 +5519,13 @@
         <v>8</v>
       </c>
       <c r="C197" s="16" t="s">
-        <v>122</v>
+        <v>54</v>
       </c>
       <c r="D197" s="17" t="s">
-        <v>123</v>
+        <v>55</v>
       </c>
       <c r="E197" s="16" t="s">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="F197" s="18">
         <v>36240</v>
@@ -5539,16 +5542,16 @@
         <v>8</v>
       </c>
       <c r="C198" s="16" t="s">
-        <v>122</v>
+        <v>48</v>
       </c>
       <c r="D198" s="17" t="s">
-        <v>123</v>
+        <v>49</v>
       </c>
       <c r="E198" s="16" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="F198" s="18">
-        <v>36240</v>
+        <v>34520</v>
       </c>
       <c r="G198" s="18">
         <v>906000</v>
@@ -5562,19 +5565,19 @@
         <v>8</v>
       </c>
       <c r="C199" s="16" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D199" s="17" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="E199" s="16" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="F199" s="18">
-        <v>36240</v>
+        <v>31249</v>
       </c>
       <c r="G199" s="18">
-        <v>906000</v>
+        <v>781242</v>
       </c>
       <c r="H199" s="19"/>
       <c r="I199" s="19"/>
@@ -5585,19 +5588,19 @@
         <v>8</v>
       </c>
       <c r="C200" s="16" t="s">
-        <v>122</v>
+        <v>9</v>
       </c>
       <c r="D200" s="17" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="E200" s="16" t="s">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="F200" s="18">
-        <v>36240</v>
+        <v>31249</v>
       </c>
       <c r="G200" s="18">
-        <v>906000</v>
+        <v>781242</v>
       </c>
       <c r="H200" s="19"/>
       <c r="I200" s="19"/>
@@ -5608,13 +5611,13 @@
         <v>8</v>
       </c>
       <c r="C201" s="16" t="s">
-        <v>122</v>
+        <v>54</v>
       </c>
       <c r="D201" s="17" t="s">
-        <v>123</v>
+        <v>55</v>
       </c>
       <c r="E201" s="16" t="s">
-        <v>16</v>
+        <v>81</v>
       </c>
       <c r="F201" s="18">
         <v>36240</v>
@@ -5631,16 +5634,16 @@
         <v>8</v>
       </c>
       <c r="C202" s="16" t="s">
-        <v>122</v>
+        <v>48</v>
       </c>
       <c r="D202" s="17" t="s">
-        <v>123</v>
+        <v>49</v>
       </c>
       <c r="E202" s="16" t="s">
-        <v>17</v>
+        <v>81</v>
       </c>
       <c r="F202" s="18">
-        <v>36240</v>
+        <v>34520</v>
       </c>
       <c r="G202" s="18">
         <v>906000</v>
@@ -5654,19 +5657,19 @@
         <v>8</v>
       </c>
       <c r="C203" s="16" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D203" s="17" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="E203" s="16" t="s">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="F203" s="18">
-        <v>36240</v>
+        <v>31249</v>
       </c>
       <c r="G203" s="18">
-        <v>906000</v>
+        <v>781242</v>
       </c>
       <c r="H203" s="19"/>
       <c r="I203" s="19"/>
@@ -5677,19 +5680,19 @@
         <v>8</v>
       </c>
       <c r="C204" s="16" t="s">
-        <v>122</v>
+        <v>9</v>
       </c>
       <c r="D204" s="17" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="E204" s="16" t="s">
-        <v>19</v>
+        <v>82</v>
       </c>
       <c r="F204" s="18">
-        <v>36240</v>
+        <v>31249</v>
       </c>
       <c r="G204" s="18">
-        <v>906000</v>
+        <v>781242</v>
       </c>
       <c r="H204" s="19"/>
       <c r="I204" s="19"/>
@@ -5700,13 +5703,13 @@
         <v>8</v>
       </c>
       <c r="C205" s="16" t="s">
-        <v>122</v>
+        <v>54</v>
       </c>
       <c r="D205" s="17" t="s">
-        <v>123</v>
+        <v>55</v>
       </c>
       <c r="E205" s="16" t="s">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="F205" s="18">
         <v>36240</v>
@@ -5723,16 +5726,16 @@
         <v>8</v>
       </c>
       <c r="C206" s="16" t="s">
-        <v>122</v>
+        <v>48</v>
       </c>
       <c r="D206" s="17" t="s">
-        <v>123</v>
+        <v>49</v>
       </c>
       <c r="E206" s="16" t="s">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="F206" s="18">
-        <v>36240</v>
+        <v>34520</v>
       </c>
       <c r="G206" s="18">
         <v>906000</v>
@@ -5746,19 +5749,19 @@
         <v>8</v>
       </c>
       <c r="C207" s="16" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D207" s="17" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="E207" s="16" t="s">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="F207" s="18">
-        <v>36240</v>
+        <v>31249</v>
       </c>
       <c r="G207" s="18">
-        <v>906000</v>
+        <v>781242</v>
       </c>
       <c r="H207" s="19"/>
       <c r="I207" s="19"/>
@@ -5769,19 +5772,19 @@
         <v>8</v>
       </c>
       <c r="C208" s="16" t="s">
-        <v>122</v>
+        <v>9</v>
       </c>
       <c r="D208" s="17" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="E208" s="16" t="s">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="F208" s="18">
-        <v>36240</v>
+        <v>31249</v>
       </c>
       <c r="G208" s="18">
-        <v>906000</v>
+        <v>781242</v>
       </c>
       <c r="H208" s="19"/>
       <c r="I208" s="19"/>
@@ -5792,13 +5795,13 @@
         <v>8</v>
       </c>
       <c r="C209" s="16" t="s">
-        <v>122</v>
+        <v>54</v>
       </c>
       <c r="D209" s="17" t="s">
-        <v>123</v>
+        <v>55</v>
       </c>
       <c r="E209" s="16" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="F209" s="18">
         <v>36240</v>
@@ -5815,16 +5818,16 @@
         <v>8</v>
       </c>
       <c r="C210" s="16" t="s">
-        <v>122</v>
+        <v>48</v>
       </c>
       <c r="D210" s="17" t="s">
-        <v>123</v>
+        <v>49</v>
       </c>
       <c r="E210" s="16" t="s">
-        <v>25</v>
+        <v>83</v>
       </c>
       <c r="F210" s="18">
-        <v>36240</v>
+        <v>34520</v>
       </c>
       <c r="G210" s="18">
         <v>906000</v>
@@ -5838,19 +5841,19 @@
         <v>8</v>
       </c>
       <c r="C211" s="16" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D211" s="17" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="E211" s="16" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="F211" s="18">
-        <v>36240</v>
+        <v>31249</v>
       </c>
       <c r="G211" s="18">
-        <v>906000</v>
+        <v>781242</v>
       </c>
       <c r="H211" s="19"/>
       <c r="I211" s="19"/>
@@ -5861,19 +5864,19 @@
         <v>8</v>
       </c>
       <c r="C212" s="16" t="s">
-        <v>122</v>
+        <v>9</v>
       </c>
       <c r="D212" s="17" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="E212" s="16" t="s">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="F212" s="18">
-        <v>36240</v>
+        <v>31249</v>
       </c>
       <c r="G212" s="18">
-        <v>906000</v>
+        <v>781242</v>
       </c>
       <c r="H212" s="19"/>
       <c r="I212" s="19"/>
@@ -5884,13 +5887,13 @@
         <v>8</v>
       </c>
       <c r="C213" s="16" t="s">
-        <v>122</v>
+        <v>54</v>
       </c>
       <c r="D213" s="17" t="s">
-        <v>123</v>
+        <v>55</v>
       </c>
       <c r="E213" s="16" t="s">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="F213" s="18">
         <v>36240</v>
@@ -5907,16 +5910,16 @@
         <v>8</v>
       </c>
       <c r="C214" s="16" t="s">
-        <v>122</v>
+        <v>48</v>
       </c>
       <c r="D214" s="17" t="s">
-        <v>123</v>
+        <v>49</v>
       </c>
       <c r="E214" s="16" t="s">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="F214" s="18">
-        <v>36240</v>
+        <v>34520</v>
       </c>
       <c r="G214" s="18">
         <v>906000</v>
@@ -5930,19 +5933,19 @@
         <v>8</v>
       </c>
       <c r="C215" s="16" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D215" s="17" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="E215" s="16" t="s">
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="F215" s="18">
-        <v>36240</v>
+        <v>31249</v>
       </c>
       <c r="G215" s="18">
-        <v>906000</v>
+        <v>781242</v>
       </c>
       <c r="H215" s="19"/>
       <c r="I215" s="19"/>
@@ -5953,19 +5956,19 @@
         <v>8</v>
       </c>
       <c r="C216" s="16" t="s">
-        <v>122</v>
+        <v>9</v>
       </c>
       <c r="D216" s="17" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="E216" s="16" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="F216" s="18">
-        <v>36240</v>
+        <v>31249</v>
       </c>
       <c r="G216" s="18">
-        <v>906000</v>
+        <v>781242</v>
       </c>
       <c r="H216" s="19"/>
       <c r="I216" s="19"/>
@@ -5976,13 +5979,13 @@
         <v>8</v>
       </c>
       <c r="C217" s="16" t="s">
-        <v>122</v>
+        <v>54</v>
       </c>
       <c r="D217" s="17" t="s">
-        <v>123</v>
+        <v>55</v>
       </c>
       <c r="E217" s="16" t="s">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="F217" s="18">
         <v>36240</v>
@@ -5999,16 +6002,16 @@
         <v>8</v>
       </c>
       <c r="C218" s="16" t="s">
-        <v>122</v>
+        <v>48</v>
       </c>
       <c r="D218" s="17" t="s">
-        <v>123</v>
+        <v>49</v>
       </c>
       <c r="E218" s="16" t="s">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="F218" s="18">
-        <v>36240</v>
+        <v>34520</v>
       </c>
       <c r="G218" s="18">
         <v>906000</v>
@@ -6022,19 +6025,19 @@
         <v>8</v>
       </c>
       <c r="C219" s="16" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D219" s="17" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="E219" s="16" t="s">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="F219" s="18">
-        <v>36240</v>
+        <v>31249</v>
       </c>
       <c r="G219" s="18">
-        <v>906000</v>
+        <v>781242</v>
       </c>
       <c r="H219" s="19"/>
       <c r="I219" s="19"/>
@@ -6045,19 +6048,19 @@
         <v>8</v>
       </c>
       <c r="C220" s="16" t="s">
-        <v>122</v>
+        <v>9</v>
       </c>
       <c r="D220" s="17" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="E220" s="16" t="s">
-        <v>35</v>
+        <v>86</v>
       </c>
       <c r="F220" s="18">
-        <v>36240</v>
+        <v>31249</v>
       </c>
       <c r="G220" s="18">
-        <v>906000</v>
+        <v>781242</v>
       </c>
       <c r="H220" s="19"/>
       <c r="I220" s="19"/>
@@ -6068,13 +6071,13 @@
         <v>8</v>
       </c>
       <c r="C221" s="16" t="s">
-        <v>122</v>
+        <v>54</v>
       </c>
       <c r="D221" s="17" t="s">
-        <v>123</v>
+        <v>55</v>
       </c>
       <c r="E221" s="16" t="s">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="F221" s="18">
         <v>36240</v>
@@ -6091,16 +6094,16 @@
         <v>8</v>
       </c>
       <c r="C222" s="16" t="s">
-        <v>122</v>
+        <v>48</v>
       </c>
       <c r="D222" s="17" t="s">
-        <v>123</v>
+        <v>49</v>
       </c>
       <c r="E222" s="16" t="s">
-        <v>37</v>
+        <v>86</v>
       </c>
       <c r="F222" s="18">
-        <v>36240</v>
+        <v>34520</v>
       </c>
       <c r="G222" s="18">
         <v>906000</v>
@@ -6114,19 +6117,19 @@
         <v>8</v>
       </c>
       <c r="C223" s="16" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D223" s="17" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="E223" s="16" t="s">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="F223" s="18">
-        <v>36240</v>
+        <v>31249</v>
       </c>
       <c r="G223" s="18">
-        <v>906000</v>
+        <v>781242</v>
       </c>
       <c r="H223" s="19"/>
       <c r="I223" s="19"/>
@@ -6137,19 +6140,19 @@
         <v>8</v>
       </c>
       <c r="C224" s="16" t="s">
-        <v>122</v>
+        <v>9</v>
       </c>
       <c r="D224" s="17" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="E224" s="16" t="s">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="F224" s="18">
-        <v>36240</v>
+        <v>31249</v>
       </c>
       <c r="G224" s="18">
-        <v>906000</v>
+        <v>781242</v>
       </c>
       <c r="H224" s="19"/>
       <c r="I224" s="19"/>
@@ -6160,13 +6163,13 @@
         <v>8</v>
       </c>
       <c r="C225" s="16" t="s">
-        <v>122</v>
+        <v>54</v>
       </c>
       <c r="D225" s="17" t="s">
-        <v>123</v>
+        <v>55</v>
       </c>
       <c r="E225" s="16" t="s">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="F225" s="18">
         <v>36240</v>
@@ -6183,16 +6186,16 @@
         <v>8</v>
       </c>
       <c r="C226" s="16" t="s">
-        <v>122</v>
+        <v>48</v>
       </c>
       <c r="D226" s="17" t="s">
-        <v>123</v>
+        <v>49</v>
       </c>
       <c r="E226" s="16" t="s">
-        <v>41</v>
+        <v>87</v>
       </c>
       <c r="F226" s="18">
-        <v>36240</v>
+        <v>34520</v>
       </c>
       <c r="G226" s="18">
         <v>906000</v>
@@ -6206,19 +6209,19 @@
         <v>8</v>
       </c>
       <c r="C227" s="16" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D227" s="17" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="E227" s="16" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="F227" s="18">
-        <v>36240</v>
+        <v>31249</v>
       </c>
       <c r="G227" s="18">
-        <v>906000</v>
+        <v>781242</v>
       </c>
       <c r="H227" s="19"/>
       <c r="I227" s="19"/>
@@ -6229,19 +6232,19 @@
         <v>8</v>
       </c>
       <c r="C228" s="16" t="s">
-        <v>122</v>
+        <v>9</v>
       </c>
       <c r="D228" s="17" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="E228" s="16" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="F228" s="18">
-        <v>36240</v>
+        <v>31249</v>
       </c>
       <c r="G228" s="18">
-        <v>906000</v>
+        <v>781242</v>
       </c>
       <c r="H228" s="19"/>
       <c r="I228" s="19"/>
@@ -6252,13 +6255,13 @@
         <v>8</v>
       </c>
       <c r="C229" s="16" t="s">
-        <v>122</v>
+        <v>54</v>
       </c>
       <c r="D229" s="17" t="s">
-        <v>123</v>
+        <v>55</v>
       </c>
       <c r="E229" s="16" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="F229" s="18">
         <v>36240</v>
@@ -6275,16 +6278,16 @@
         <v>8</v>
       </c>
       <c r="C230" s="16" t="s">
-        <v>122</v>
+        <v>48</v>
       </c>
       <c r="D230" s="17" t="s">
-        <v>123</v>
+        <v>49</v>
       </c>
       <c r="E230" s="16" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="F230" s="18">
-        <v>36240</v>
+        <v>34520</v>
       </c>
       <c r="G230" s="18">
         <v>906000</v>
@@ -6298,19 +6301,19 @@
         <v>8</v>
       </c>
       <c r="C231" s="16" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D231" s="17" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="E231" s="16" t="s">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="F231" s="18">
-        <v>34520</v>
+        <v>31249</v>
       </c>
       <c r="G231" s="18">
-        <v>906000</v>
+        <v>781242</v>
       </c>
       <c r="H231" s="19"/>
       <c r="I231" s="19"/>
@@ -6321,19 +6324,19 @@
         <v>8</v>
       </c>
       <c r="C232" s="16" t="s">
-        <v>122</v>
+        <v>9</v>
       </c>
       <c r="D232" s="17" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="E232" s="16" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="F232" s="18">
-        <v>34520</v>
+        <v>31249</v>
       </c>
       <c r="G232" s="18">
-        <v>906000</v>
+        <v>781242</v>
       </c>
       <c r="H232" s="19"/>
       <c r="I232" s="19"/>
@@ -6344,16 +6347,16 @@
         <v>8</v>
       </c>
       <c r="C233" s="16" t="s">
-        <v>122</v>
+        <v>54</v>
       </c>
       <c r="D233" s="17" t="s">
-        <v>123</v>
+        <v>55</v>
       </c>
       <c r="E233" s="16" t="s">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="F233" s="18">
-        <v>34520</v>
+        <v>36240</v>
       </c>
       <c r="G233" s="18">
         <v>906000</v>
@@ -6367,13 +6370,13 @@
         <v>8</v>
       </c>
       <c r="C234" s="16" t="s">
-        <v>122</v>
+        <v>48</v>
       </c>
       <c r="D234" s="17" t="s">
-        <v>123</v>
+        <v>49</v>
       </c>
       <c r="E234" s="16" t="s">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="F234" s="18">
         <v>34520</v>
@@ -6390,19 +6393,19 @@
         <v>8</v>
       </c>
       <c r="C235" s="16" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D235" s="17" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="E235" s="16" t="s">
-        <v>50</v>
+        <v>89</v>
       </c>
       <c r="F235" s="18">
-        <v>34520</v>
+        <v>31249</v>
       </c>
       <c r="G235" s="18">
-        <v>906000</v>
+        <v>781242</v>
       </c>
       <c r="H235" s="19"/>
       <c r="I235" s="19"/>
@@ -6413,19 +6416,19 @@
         <v>8</v>
       </c>
       <c r="C236" s="16" t="s">
-        <v>122</v>
+        <v>9</v>
       </c>
       <c r="D236" s="17" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="E236" s="16" t="s">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="F236" s="18">
-        <v>34520</v>
+        <v>31249</v>
       </c>
       <c r="G236" s="18">
-        <v>906000</v>
+        <v>781242</v>
       </c>
       <c r="H236" s="19"/>
       <c r="I236" s="19"/>
@@ -6436,16 +6439,16 @@
         <v>8</v>
       </c>
       <c r="C237" s="16" t="s">
-        <v>122</v>
+        <v>54</v>
       </c>
       <c r="D237" s="17" t="s">
-        <v>123</v>
+        <v>55</v>
       </c>
       <c r="E237" s="16" t="s">
-        <v>52</v>
+        <v>90</v>
       </c>
       <c r="F237" s="18">
-        <v>34520</v>
+        <v>36240</v>
       </c>
       <c r="G237" s="18">
         <v>906000</v>
@@ -6459,13 +6462,13 @@
         <v>8</v>
       </c>
       <c r="C238" s="16" t="s">
-        <v>122</v>
+        <v>48</v>
       </c>
       <c r="D238" s="17" t="s">
-        <v>123</v>
+        <v>49</v>
       </c>
       <c r="E238" s="16" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="F238" s="18">
         <v>34520</v>
@@ -6482,19 +6485,19 @@
         <v>8</v>
       </c>
       <c r="C239" s="16" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D239" s="17" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="E239" s="16" t="s">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="F239" s="18">
-        <v>34520</v>
+        <v>31249</v>
       </c>
       <c r="G239" s="18">
-        <v>906000</v>
+        <v>781242</v>
       </c>
       <c r="H239" s="19"/>
       <c r="I239" s="19"/>
@@ -6505,19 +6508,19 @@
         <v>8</v>
       </c>
       <c r="C240" s="16" t="s">
-        <v>122</v>
+        <v>9</v>
       </c>
       <c r="D240" s="17" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="E240" s="16" t="s">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="F240" s="18">
-        <v>34520</v>
+        <v>31249</v>
       </c>
       <c r="G240" s="18">
-        <v>906000</v>
+        <v>781242</v>
       </c>
       <c r="H240" s="19"/>
       <c r="I240" s="19"/>
@@ -6528,16 +6531,16 @@
         <v>8</v>
       </c>
       <c r="C241" s="16" t="s">
-        <v>122</v>
+        <v>54</v>
       </c>
       <c r="D241" s="17" t="s">
-        <v>123</v>
+        <v>55</v>
       </c>
       <c r="E241" s="16" t="s">
-        <v>56</v>
+        <v>91</v>
       </c>
       <c r="F241" s="18">
-        <v>34520</v>
+        <v>36240</v>
       </c>
       <c r="G241" s="18">
         <v>906000</v>
@@ -6551,16 +6554,16 @@
         <v>8</v>
       </c>
       <c r="C242" s="16" t="s">
-        <v>122</v>
+        <v>48</v>
       </c>
       <c r="D242" s="17" t="s">
-        <v>123</v>
+        <v>49</v>
       </c>
       <c r="E242" s="16" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="F242" s="18">
-        <v>34520</v>
+        <v>36240</v>
       </c>
       <c r="G242" s="18">
         <v>906000</v>
@@ -6574,19 +6577,19 @@
         <v>8</v>
       </c>
       <c r="C243" s="16" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D243" s="17" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="E243" s="16" t="s">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="F243" s="18">
-        <v>34520</v>
+        <v>31249</v>
       </c>
       <c r="G243" s="18">
-        <v>906000</v>
+        <v>781242</v>
       </c>
       <c r="H243" s="19"/>
       <c r="I243" s="19"/>
@@ -6597,19 +6600,19 @@
         <v>8</v>
       </c>
       <c r="C244" s="16" t="s">
-        <v>122</v>
+        <v>9</v>
       </c>
       <c r="D244" s="17" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="E244" s="16" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="F244" s="18">
-        <v>34520</v>
+        <v>31249</v>
       </c>
       <c r="G244" s="18">
-        <v>906000</v>
+        <v>781242</v>
       </c>
       <c r="H244" s="19"/>
       <c r="I244" s="19"/>
@@ -6620,16 +6623,16 @@
         <v>8</v>
       </c>
       <c r="C245" s="16" t="s">
-        <v>122</v>
+        <v>54</v>
       </c>
       <c r="D245" s="17" t="s">
-        <v>123</v>
+        <v>55</v>
       </c>
       <c r="E245" s="16" t="s">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="F245" s="18">
-        <v>34520</v>
+        <v>36240</v>
       </c>
       <c r="G245" s="18">
         <v>906000</v>
@@ -6643,16 +6646,16 @@
         <v>8</v>
       </c>
       <c r="C246" s="16" t="s">
-        <v>122</v>
+        <v>48</v>
       </c>
       <c r="D246" s="17" t="s">
-        <v>123</v>
+        <v>49</v>
       </c>
       <c r="E246" s="16" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="F246" s="18">
-        <v>34520</v>
+        <v>36240</v>
       </c>
       <c r="G246" s="18">
         <v>906000</v>
@@ -6666,19 +6669,19 @@
         <v>8</v>
       </c>
       <c r="C247" s="16" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D247" s="17" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="E247" s="16" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="F247" s="18">
-        <v>34520</v>
+        <v>31249</v>
       </c>
       <c r="G247" s="18">
-        <v>906000</v>
+        <v>781242</v>
       </c>
       <c r="H247" s="19"/>
       <c r="I247" s="19"/>
@@ -6689,19 +6692,19 @@
         <v>8</v>
       </c>
       <c r="C248" s="16" t="s">
-        <v>122</v>
+        <v>9</v>
       </c>
       <c r="D248" s="17" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="E248" s="16" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="F248" s="18">
-        <v>34520</v>
+        <v>31249</v>
       </c>
       <c r="G248" s="18">
-        <v>906000</v>
+        <v>781242</v>
       </c>
       <c r="H248" s="19"/>
       <c r="I248" s="19"/>
@@ -6712,16 +6715,16 @@
         <v>8</v>
       </c>
       <c r="C249" s="16" t="s">
-        <v>122</v>
+        <v>54</v>
       </c>
       <c r="D249" s="17" t="s">
-        <v>123</v>
+        <v>55</v>
       </c>
       <c r="E249" s="16" t="s">
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="F249" s="18">
-        <v>34520</v>
+        <v>36240</v>
       </c>
       <c r="G249" s="18">
         <v>906000</v>
@@ -6735,16 +6738,16 @@
         <v>8</v>
       </c>
       <c r="C250" s="16" t="s">
-        <v>122</v>
+        <v>48</v>
       </c>
       <c r="D250" s="17" t="s">
-        <v>123</v>
+        <v>49</v>
       </c>
       <c r="E250" s="16" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="F250" s="18">
-        <v>34520</v>
+        <v>36240</v>
       </c>
       <c r="G250" s="18">
         <v>906000</v>
@@ -6758,19 +6761,19 @@
         <v>8</v>
       </c>
       <c r="C251" s="16" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D251" s="17" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="E251" s="16" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="F251" s="18">
-        <v>34520</v>
+        <v>31249</v>
       </c>
       <c r="G251" s="18">
-        <v>906000</v>
+        <v>781242</v>
       </c>
       <c r="H251" s="19"/>
       <c r="I251" s="19"/>
@@ -6781,19 +6784,19 @@
         <v>8</v>
       </c>
       <c r="C252" s="16" t="s">
-        <v>122</v>
+        <v>9</v>
       </c>
       <c r="D252" s="17" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="E252" s="16" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="F252" s="18">
-        <v>34520</v>
+        <v>31249</v>
       </c>
       <c r="G252" s="18">
-        <v>906000</v>
+        <v>781242</v>
       </c>
       <c r="H252" s="19"/>
       <c r="I252" s="19"/>
@@ -6804,16 +6807,16 @@
         <v>8</v>
       </c>
       <c r="C253" s="16" t="s">
-        <v>122</v>
+        <v>54</v>
       </c>
       <c r="D253" s="17" t="s">
-        <v>123</v>
+        <v>55</v>
       </c>
       <c r="E253" s="16" t="s">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="F253" s="18">
-        <v>34520</v>
+        <v>36240</v>
       </c>
       <c r="G253" s="18">
         <v>906000</v>
@@ -6827,16 +6830,16 @@
         <v>8</v>
       </c>
       <c r="C254" s="16" t="s">
-        <v>122</v>
+        <v>48</v>
       </c>
       <c r="D254" s="17" t="s">
-        <v>123</v>
+        <v>49</v>
       </c>
       <c r="E254" s="16" t="s">
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="F254" s="18">
-        <v>34520</v>
+        <v>36240</v>
       </c>
       <c r="G254" s="18">
         <v>906000</v>
@@ -6850,19 +6853,19 @@
         <v>8</v>
       </c>
       <c r="C255" s="16" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D255" s="17" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="E255" s="16" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="F255" s="18">
-        <v>34520</v>
+        <v>31249</v>
       </c>
       <c r="G255" s="18">
-        <v>906000</v>
+        <v>781242</v>
       </c>
       <c r="H255" s="19"/>
       <c r="I255" s="19"/>
@@ -6873,19 +6876,19 @@
         <v>8</v>
       </c>
       <c r="C256" s="16" t="s">
-        <v>122</v>
+        <v>9</v>
       </c>
       <c r="D256" s="17" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="E256" s="16" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="F256" s="18">
-        <v>34520</v>
+        <v>31249</v>
       </c>
       <c r="G256" s="18">
-        <v>906000</v>
+        <v>781242</v>
       </c>
       <c r="H256" s="19"/>
       <c r="I256" s="19"/>
@@ -6896,16 +6899,16 @@
         <v>8</v>
       </c>
       <c r="C257" s="16" t="s">
-        <v>122</v>
+        <v>54</v>
       </c>
       <c r="D257" s="17" t="s">
-        <v>123</v>
+        <v>55</v>
       </c>
       <c r="E257" s="16" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="F257" s="18">
-        <v>34520</v>
+        <v>36240</v>
       </c>
       <c r="G257" s="18">
         <v>906000</v>
@@ -6919,16 +6922,16 @@
         <v>8</v>
       </c>
       <c r="C258" s="16" t="s">
-        <v>122</v>
+        <v>48</v>
       </c>
       <c r="D258" s="17" t="s">
-        <v>123</v>
+        <v>49</v>
       </c>
       <c r="E258" s="16" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="F258" s="18">
-        <v>34520</v>
+        <v>36240</v>
       </c>
       <c r="G258" s="18">
         <v>906000</v>
@@ -6942,19 +6945,19 @@
         <v>8</v>
       </c>
       <c r="C259" s="16" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D259" s="17" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="E259" s="16" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="F259" s="18">
-        <v>34520</v>
+        <v>31249</v>
       </c>
       <c r="G259" s="18">
-        <v>906000</v>
+        <v>781242</v>
       </c>
       <c r="H259" s="19"/>
       <c r="I259" s="19"/>
@@ -6965,19 +6968,19 @@
         <v>8</v>
       </c>
       <c r="C260" s="16" t="s">
-        <v>122</v>
+        <v>9</v>
       </c>
       <c r="D260" s="17" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="E260" s="16" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="F260" s="18">
-        <v>34520</v>
+        <v>31249</v>
       </c>
       <c r="G260" s="18">
-        <v>906000</v>
+        <v>781242</v>
       </c>
       <c r="H260" s="19"/>
       <c r="I260" s="19"/>
@@ -6988,16 +6991,16 @@
         <v>8</v>
       </c>
       <c r="C261" s="16" t="s">
-        <v>122</v>
+        <v>54</v>
       </c>
       <c r="D261" s="17" t="s">
-        <v>123</v>
+        <v>55</v>
       </c>
       <c r="E261" s="16" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="F261" s="18">
-        <v>34520</v>
+        <v>36240</v>
       </c>
       <c r="G261" s="18">
         <v>906000</v>
@@ -7011,16 +7014,16 @@
         <v>8</v>
       </c>
       <c r="C262" s="16" t="s">
-        <v>122</v>
+        <v>48</v>
       </c>
       <c r="D262" s="17" t="s">
-        <v>123</v>
+        <v>49</v>
       </c>
       <c r="E262" s="16" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="F262" s="18">
-        <v>34520</v>
+        <v>36240</v>
       </c>
       <c r="G262" s="18">
         <v>906000</v>
@@ -7034,19 +7037,19 @@
         <v>8</v>
       </c>
       <c r="C263" s="16" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D263" s="17" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="E263" s="16" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="F263" s="18">
-        <v>34520</v>
+        <v>31249</v>
       </c>
       <c r="G263" s="18">
-        <v>906000</v>
+        <v>781242</v>
       </c>
       <c r="H263" s="19"/>
       <c r="I263" s="19"/>
@@ -7057,19 +7060,19 @@
         <v>8</v>
       </c>
       <c r="C264" s="16" t="s">
-        <v>122</v>
+        <v>9</v>
       </c>
       <c r="D264" s="17" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="E264" s="16" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="F264" s="18">
-        <v>34520</v>
+        <v>31249</v>
       </c>
       <c r="G264" s="18">
-        <v>906000</v>
+        <v>781242</v>
       </c>
       <c r="H264" s="19"/>
       <c r="I264" s="19"/>
@@ -7080,16 +7083,16 @@
         <v>8</v>
       </c>
       <c r="C265" s="16" t="s">
-        <v>122</v>
+        <v>54</v>
       </c>
       <c r="D265" s="17" t="s">
-        <v>123</v>
+        <v>55</v>
       </c>
       <c r="E265" s="16" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="F265" s="18">
-        <v>34520</v>
+        <v>36240</v>
       </c>
       <c r="G265" s="18">
         <v>906000</v>
@@ -7103,16 +7106,16 @@
         <v>8</v>
       </c>
       <c r="C266" s="16" t="s">
-        <v>122</v>
+        <v>48</v>
       </c>
       <c r="D266" s="17" t="s">
-        <v>123</v>
+        <v>49</v>
       </c>
       <c r="E266" s="16" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="F266" s="18">
-        <v>34520</v>
+        <v>36240</v>
       </c>
       <c r="G266" s="18">
         <v>906000</v>
@@ -7126,19 +7129,19 @@
         <v>8</v>
       </c>
       <c r="C267" s="16" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D267" s="17" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="E267" s="16" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="F267" s="18">
-        <v>34520</v>
+        <v>31249</v>
       </c>
       <c r="G267" s="18">
-        <v>906000</v>
+        <v>781242</v>
       </c>
       <c r="H267" s="19"/>
       <c r="I267" s="19"/>
@@ -7149,19 +7152,19 @@
         <v>8</v>
       </c>
       <c r="C268" s="16" t="s">
-        <v>122</v>
+        <v>9</v>
       </c>
       <c r="D268" s="17" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="E268" s="16" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="F268" s="18">
-        <v>34520</v>
+        <v>31249</v>
       </c>
       <c r="G268" s="18">
-        <v>906000</v>
+        <v>781242</v>
       </c>
       <c r="H268" s="19"/>
       <c r="I268" s="19"/>
@@ -7172,16 +7175,16 @@
         <v>8</v>
       </c>
       <c r="C269" s="16" t="s">
-        <v>122</v>
+        <v>54</v>
       </c>
       <c r="D269" s="17" t="s">
-        <v>123</v>
+        <v>55</v>
       </c>
       <c r="E269" s="16" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="F269" s="18">
-        <v>34520</v>
+        <v>36240</v>
       </c>
       <c r="G269" s="18">
         <v>906000</v>
@@ -7195,16 +7198,16 @@
         <v>8</v>
       </c>
       <c r="C270" s="16" t="s">
-        <v>122</v>
+        <v>48</v>
       </c>
       <c r="D270" s="17" t="s">
-        <v>123</v>
+        <v>49</v>
       </c>
       <c r="E270" s="16" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="F270" s="18">
-        <v>34520</v>
+        <v>36240</v>
       </c>
       <c r="G270" s="18">
         <v>906000</v>
@@ -7218,19 +7221,19 @@
         <v>8</v>
       </c>
       <c r="C271" s="16" t="s">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="D271" s="17" t="s">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="E271" s="16" t="s">
-        <v>11</v>
+        <v>98</v>
       </c>
       <c r="F271" s="18">
-        <v>56940</v>
+        <v>31249</v>
       </c>
       <c r="G271" s="18">
-        <v>1423500</v>
+        <v>781242</v>
       </c>
       <c r="H271" s="19"/>
       <c r="I271" s="19"/>
@@ -7241,19 +7244,19 @@
         <v>8</v>
       </c>
       <c r="C272" s="16" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="D272" s="17" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="E272" s="16" t="s">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="F272" s="18">
-        <v>56940</v>
+        <v>31249</v>
       </c>
       <c r="G272" s="18">
-        <v>1423500</v>
+        <v>781242</v>
       </c>
       <c r="H272" s="19"/>
       <c r="I272" s="19"/>
@@ -7264,19 +7267,19 @@
         <v>8</v>
       </c>
       <c r="C273" s="16" t="s">
-        <v>124</v>
+        <v>54</v>
       </c>
       <c r="D273" s="17" t="s">
-        <v>125</v>
+        <v>55</v>
       </c>
       <c r="E273" s="16" t="s">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="F273" s="18">
-        <v>56940</v>
+        <v>36240</v>
       </c>
       <c r="G273" s="18">
-        <v>1423500</v>
+        <v>906000</v>
       </c>
       <c r="H273" s="19"/>
       <c r="I273" s="19"/>
@@ -7287,19 +7290,19 @@
         <v>8</v>
       </c>
       <c r="C274" s="16" t="s">
-        <v>124</v>
+        <v>48</v>
       </c>
       <c r="D274" s="17" t="s">
-        <v>125</v>
+        <v>49</v>
       </c>
       <c r="E274" s="16" t="s">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="F274" s="18">
-        <v>56940</v>
+        <v>36240</v>
       </c>
       <c r="G274" s="18">
-        <v>1423500</v>
+        <v>906000</v>
       </c>
       <c r="H274" s="19"/>
       <c r="I274" s="19"/>
@@ -7310,13 +7313,13 @@
         <v>8</v>
       </c>
       <c r="C275" s="16" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="D275" s="17" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="E275" s="16" t="s">
-        <v>11</v>
+        <v>99</v>
       </c>
       <c r="F275" s="18">
         <v>31249</v>
@@ -7333,13 +7336,13 @@
         <v>8</v>
       </c>
       <c r="C276" s="16" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="D276" s="17" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="E276" s="16" t="s">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="F276" s="18">
         <v>31249</v>
@@ -7356,19 +7359,19 @@
         <v>8</v>
       </c>
       <c r="C277" s="16" t="s">
-        <v>126</v>
+        <v>54</v>
       </c>
       <c r="D277" s="17" t="s">
-        <v>127</v>
+        <v>55</v>
       </c>
       <c r="E277" s="16" t="s">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="F277" s="18">
-        <v>31249</v>
+        <v>36240</v>
       </c>
       <c r="G277" s="18">
-        <v>781242</v>
+        <v>906000</v>
       </c>
       <c r="H277" s="19"/>
       <c r="I277" s="19"/>
@@ -7379,19 +7382,19 @@
         <v>8</v>
       </c>
       <c r="C278" s="16" t="s">
-        <v>126</v>
+        <v>48</v>
       </c>
       <c r="D278" s="17" t="s">
-        <v>127</v>
+        <v>49</v>
       </c>
       <c r="E278" s="16" t="s">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="F278" s="18">
-        <v>31249</v>
+        <v>36240</v>
       </c>
       <c r="G278" s="18">
-        <v>781242</v>
+        <v>906000</v>
       </c>
       <c r="H278" s="19"/>
       <c r="I278" s="19"/>
@@ -7402,13 +7405,13 @@
         <v>8</v>
       </c>
       <c r="C279" s="16" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="D279" s="17" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="E279" s="16" t="s">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="F279" s="18">
         <v>31249</v>
@@ -7425,13 +7428,13 @@
         <v>8</v>
       </c>
       <c r="C280" s="16" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="D280" s="17" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="E280" s="16" t="s">
-        <v>16</v>
+        <v>101</v>
       </c>
       <c r="F280" s="18">
         <v>31249</v>
@@ -7448,19 +7451,19 @@
         <v>8</v>
       </c>
       <c r="C281" s="16" t="s">
-        <v>126</v>
+        <v>54</v>
       </c>
       <c r="D281" s="17" t="s">
-        <v>127</v>
+        <v>55</v>
       </c>
       <c r="E281" s="16" t="s">
-        <v>17</v>
+        <v>101</v>
       </c>
       <c r="F281" s="18">
-        <v>31249</v>
+        <v>36240</v>
       </c>
       <c r="G281" s="18">
-        <v>781242</v>
+        <v>906000</v>
       </c>
       <c r="H281" s="19"/>
       <c r="I281" s="19"/>
@@ -7471,19 +7474,19 @@
         <v>8</v>
       </c>
       <c r="C282" s="16" t="s">
-        <v>126</v>
+        <v>48</v>
       </c>
       <c r="D282" s="17" t="s">
-        <v>127</v>
+        <v>49</v>
       </c>
       <c r="E282" s="16" t="s">
-        <v>18</v>
+        <v>101</v>
       </c>
       <c r="F282" s="18">
-        <v>31249</v>
+        <v>36240</v>
       </c>
       <c r="G282" s="18">
-        <v>781242</v>
+        <v>906000</v>
       </c>
       <c r="H282" s="19"/>
       <c r="I282" s="19"/>
@@ -7494,13 +7497,13 @@
         <v>8</v>
       </c>
       <c r="C283" s="16" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="D283" s="17" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="E283" s="16" t="s">
-        <v>19</v>
+        <v>101</v>
       </c>
       <c r="F283" s="18">
         <v>31249</v>
@@ -7517,13 +7520,13 @@
         <v>8</v>
       </c>
       <c r="C284" s="16" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="D284" s="17" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="E284" s="16" t="s">
-        <v>20</v>
+        <v>102</v>
       </c>
       <c r="F284" s="18">
         <v>31249</v>
@@ -7540,19 +7543,19 @@
         <v>8</v>
       </c>
       <c r="C285" s="16" t="s">
-        <v>126</v>
+        <v>54</v>
       </c>
       <c r="D285" s="17" t="s">
-        <v>127</v>
+        <v>55</v>
       </c>
       <c r="E285" s="16" t="s">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="F285" s="18">
-        <v>31249</v>
+        <v>36240</v>
       </c>
       <c r="G285" s="18">
-        <v>781242</v>
+        <v>906000</v>
       </c>
       <c r="H285" s="19"/>
       <c r="I285" s="19"/>
@@ -7563,19 +7566,19 @@
         <v>8</v>
       </c>
       <c r="C286" s="16" t="s">
-        <v>126</v>
+        <v>48</v>
       </c>
       <c r="D286" s="17" t="s">
-        <v>127</v>
+        <v>49</v>
       </c>
       <c r="E286" s="16" t="s">
-        <v>22</v>
+        <v>102</v>
       </c>
       <c r="F286" s="18">
-        <v>31249</v>
+        <v>36240</v>
       </c>
       <c r="G286" s="18">
-        <v>781242</v>
+        <v>906000</v>
       </c>
       <c r="H286" s="19"/>
       <c r="I286" s="19"/>
@@ -7586,13 +7589,13 @@
         <v>8</v>
       </c>
       <c r="C287" s="16" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="D287" s="17" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="E287" s="16" t="s">
-        <v>23</v>
+        <v>102</v>
       </c>
       <c r="F287" s="18">
         <v>31249</v>
@@ -7609,13 +7612,13 @@
         <v>8</v>
       </c>
       <c r="C288" s="16" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="D288" s="17" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="E288" s="16" t="s">
-        <v>24</v>
+        <v>103</v>
       </c>
       <c r="F288" s="18">
         <v>31249</v>
@@ -7632,19 +7635,19 @@
         <v>8</v>
       </c>
       <c r="C289" s="16" t="s">
-        <v>126</v>
+        <v>54</v>
       </c>
       <c r="D289" s="17" t="s">
-        <v>127</v>
+        <v>55</v>
       </c>
       <c r="E289" s="16" t="s">
-        <v>25</v>
+        <v>103</v>
       </c>
       <c r="F289" s="18">
-        <v>31249</v>
+        <v>36240</v>
       </c>
       <c r="G289" s="18">
-        <v>781242</v>
+        <v>906000</v>
       </c>
       <c r="H289" s="19"/>
       <c r="I289" s="19"/>
@@ -7655,19 +7658,19 @@
         <v>8</v>
       </c>
       <c r="C290" s="16" t="s">
-        <v>126</v>
+        <v>48</v>
       </c>
       <c r="D290" s="17" t="s">
-        <v>127</v>
+        <v>49</v>
       </c>
       <c r="E290" s="16" t="s">
-        <v>26</v>
+        <v>103</v>
       </c>
       <c r="F290" s="18">
-        <v>31249</v>
+        <v>36240</v>
       </c>
       <c r="G290" s="18">
-        <v>781242</v>
+        <v>906000</v>
       </c>
       <c r="H290" s="19"/>
       <c r="I290" s="19"/>
@@ -7678,13 +7681,13 @@
         <v>8</v>
       </c>
       <c r="C291" s="16" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="D291" s="17" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="E291" s="16" t="s">
-        <v>27</v>
+        <v>103</v>
       </c>
       <c r="F291" s="18">
         <v>31249</v>
@@ -7701,13 +7704,13 @@
         <v>8</v>
       </c>
       <c r="C292" s="16" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="D292" s="17" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="E292" s="16" t="s">
-        <v>28</v>
+        <v>104</v>
       </c>
       <c r="F292" s="18">
         <v>31249</v>
@@ -7724,19 +7727,19 @@
         <v>8</v>
       </c>
       <c r="C293" s="16" t="s">
-        <v>126</v>
+        <v>54</v>
       </c>
       <c r="D293" s="17" t="s">
-        <v>127</v>
+        <v>55</v>
       </c>
       <c r="E293" s="16" t="s">
-        <v>29</v>
+        <v>104</v>
       </c>
       <c r="F293" s="18">
-        <v>31249</v>
+        <v>36240</v>
       </c>
       <c r="G293" s="18">
-        <v>781242</v>
+        <v>906000</v>
       </c>
       <c r="H293" s="19"/>
       <c r="I293" s="19"/>
@@ -7747,19 +7750,19 @@
         <v>8</v>
       </c>
       <c r="C294" s="16" t="s">
-        <v>126</v>
+        <v>48</v>
       </c>
       <c r="D294" s="17" t="s">
-        <v>127</v>
+        <v>49</v>
       </c>
       <c r="E294" s="16" t="s">
-        <v>30</v>
+        <v>104</v>
       </c>
       <c r="F294" s="18">
-        <v>31249</v>
+        <v>36240</v>
       </c>
       <c r="G294" s="18">
-        <v>781242</v>
+        <v>906000</v>
       </c>
       <c r="H294" s="19"/>
       <c r="I294" s="19"/>
@@ -7770,13 +7773,13 @@
         <v>8</v>
       </c>
       <c r="C295" s="16" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="D295" s="17" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="E295" s="16" t="s">
-        <v>31</v>
+        <v>104</v>
       </c>
       <c r="F295" s="18">
         <v>31249</v>
@@ -7793,13 +7796,13 @@
         <v>8</v>
       </c>
       <c r="C296" s="16" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="D296" s="17" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="E296" s="16" t="s">
-        <v>32</v>
+        <v>105</v>
       </c>
       <c r="F296" s="18">
         <v>31249</v>
@@ -7816,19 +7819,19 @@
         <v>8</v>
       </c>
       <c r="C297" s="16" t="s">
-        <v>126</v>
+        <v>54</v>
       </c>
       <c r="D297" s="17" t="s">
-        <v>127</v>
+        <v>55</v>
       </c>
       <c r="E297" s="16" t="s">
-        <v>33</v>
+        <v>105</v>
       </c>
       <c r="F297" s="18">
-        <v>31249</v>
+        <v>36240</v>
       </c>
       <c r="G297" s="18">
-        <v>781242</v>
+        <v>906000</v>
       </c>
       <c r="H297" s="19"/>
       <c r="I297" s="19"/>
@@ -7839,19 +7842,19 @@
         <v>8</v>
       </c>
       <c r="C298" s="16" t="s">
-        <v>126</v>
+        <v>48</v>
       </c>
       <c r="D298" s="17" t="s">
-        <v>127</v>
+        <v>49</v>
       </c>
       <c r="E298" s="16" t="s">
-        <v>34</v>
+        <v>105</v>
       </c>
       <c r="F298" s="18">
-        <v>31249</v>
+        <v>36240</v>
       </c>
       <c r="G298" s="18">
-        <v>781242</v>
+        <v>906000</v>
       </c>
       <c r="H298" s="19"/>
       <c r="I298" s="19"/>
@@ -7862,13 +7865,13 @@
         <v>8</v>
       </c>
       <c r="C299" s="16" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="D299" s="17" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="E299" s="16" t="s">
-        <v>35</v>
+        <v>105</v>
       </c>
       <c r="F299" s="18">
         <v>31249</v>
@@ -7885,13 +7888,13 @@
         <v>8</v>
       </c>
       <c r="C300" s="16" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="D300" s="17" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="E300" s="16" t="s">
-        <v>36</v>
+        <v>106</v>
       </c>
       <c r="F300" s="18">
         <v>31249</v>
@@ -7908,19 +7911,19 @@
         <v>8</v>
       </c>
       <c r="C301" s="16" t="s">
-        <v>126</v>
+        <v>54</v>
       </c>
       <c r="D301" s="17" t="s">
-        <v>127</v>
+        <v>55</v>
       </c>
       <c r="E301" s="16" t="s">
-        <v>37</v>
+        <v>106</v>
       </c>
       <c r="F301" s="18">
-        <v>31249</v>
+        <v>36240</v>
       </c>
       <c r="G301" s="18">
-        <v>781242</v>
+        <v>906000</v>
       </c>
       <c r="H301" s="19"/>
       <c r="I301" s="19"/>
@@ -7931,19 +7934,19 @@
         <v>8</v>
       </c>
       <c r="C302" s="16" t="s">
-        <v>126</v>
+        <v>48</v>
       </c>
       <c r="D302" s="17" t="s">
-        <v>127</v>
+        <v>49</v>
       </c>
       <c r="E302" s="16" t="s">
-        <v>38</v>
+        <v>106</v>
       </c>
       <c r="F302" s="18">
-        <v>31249</v>
+        <v>36240</v>
       </c>
       <c r="G302" s="18">
-        <v>781242</v>
+        <v>906000</v>
       </c>
       <c r="H302" s="19"/>
       <c r="I302" s="19"/>
@@ -7954,13 +7957,13 @@
         <v>8</v>
       </c>
       <c r="C303" s="16" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="D303" s="17" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="E303" s="16" t="s">
-        <v>39</v>
+        <v>106</v>
       </c>
       <c r="F303" s="18">
         <v>31249</v>
@@ -7977,13 +7980,13 @@
         <v>8</v>
       </c>
       <c r="C304" s="16" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="D304" s="17" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="E304" s="16" t="s">
-        <v>40</v>
+        <v>107</v>
       </c>
       <c r="F304" s="18">
         <v>31249</v>
@@ -8000,19 +8003,19 @@
         <v>8</v>
       </c>
       <c r="C305" s="16" t="s">
-        <v>126</v>
+        <v>54</v>
       </c>
       <c r="D305" s="17" t="s">
-        <v>127</v>
+        <v>55</v>
       </c>
       <c r="E305" s="16" t="s">
-        <v>41</v>
+        <v>107</v>
       </c>
       <c r="F305" s="18">
-        <v>31249</v>
+        <v>36240</v>
       </c>
       <c r="G305" s="18">
-        <v>781242</v>
+        <v>906000</v>
       </c>
       <c r="H305" s="19"/>
       <c r="I305" s="19"/>
@@ -8023,19 +8026,19 @@
         <v>8</v>
       </c>
       <c r="C306" s="16" t="s">
-        <v>126</v>
+        <v>48</v>
       </c>
       <c r="D306" s="17" t="s">
-        <v>127</v>
+        <v>49</v>
       </c>
       <c r="E306" s="16" t="s">
-        <v>42</v>
+        <v>107</v>
       </c>
       <c r="F306" s="18">
-        <v>31249</v>
+        <v>36240</v>
       </c>
       <c r="G306" s="18">
-        <v>781242</v>
+        <v>906000</v>
       </c>
       <c r="H306" s="19"/>
       <c r="I306" s="19"/>
@@ -8046,13 +8049,13 @@
         <v>8</v>
       </c>
       <c r="C307" s="16" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="D307" s="17" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="E307" s="16" t="s">
-        <v>43</v>
+        <v>107</v>
       </c>
       <c r="F307" s="18">
         <v>31249</v>
@@ -8069,13 +8072,13 @@
         <v>8</v>
       </c>
       <c r="C308" s="16" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="D308" s="17" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="E308" s="16" t="s">
-        <v>44</v>
+        <v>108</v>
       </c>
       <c r="F308" s="18">
         <v>31249</v>
@@ -8092,19 +8095,19 @@
         <v>8</v>
       </c>
       <c r="C309" s="16" t="s">
-        <v>126</v>
+        <v>54</v>
       </c>
       <c r="D309" s="17" t="s">
-        <v>127</v>
+        <v>55</v>
       </c>
       <c r="E309" s="16" t="s">
-        <v>45</v>
+        <v>108</v>
       </c>
       <c r="F309" s="18">
-        <v>31249</v>
+        <v>36240</v>
       </c>
       <c r="G309" s="18">
-        <v>781242</v>
+        <v>906000</v>
       </c>
       <c r="H309" s="19"/>
       <c r="I309" s="19"/>
@@ -8115,19 +8118,19 @@
         <v>8</v>
       </c>
       <c r="C310" s="16" t="s">
-        <v>126</v>
+        <v>48</v>
       </c>
       <c r="D310" s="17" t="s">
-        <v>127</v>
+        <v>49</v>
       </c>
       <c r="E310" s="16" t="s">
-        <v>46</v>
+        <v>108</v>
       </c>
       <c r="F310" s="18">
-        <v>31249</v>
+        <v>36240</v>
       </c>
       <c r="G310" s="18">
-        <v>781242</v>
+        <v>906000</v>
       </c>
       <c r="H310" s="19"/>
       <c r="I310" s="19"/>
@@ -8138,13 +8141,13 @@
         <v>8</v>
       </c>
       <c r="C311" s="16" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="D311" s="17" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="E311" s="16" t="s">
-        <v>47</v>
+        <v>108</v>
       </c>
       <c r="F311" s="18">
         <v>31249</v>
@@ -8161,13 +8164,13 @@
         <v>8</v>
       </c>
       <c r="C312" s="16" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="D312" s="17" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="E312" s="16" t="s">
-        <v>48</v>
+        <v>109</v>
       </c>
       <c r="F312" s="18">
         <v>31249</v>
@@ -8184,19 +8187,19 @@
         <v>8</v>
       </c>
       <c r="C313" s="16" t="s">
-        <v>126</v>
+        <v>54</v>
       </c>
       <c r="D313" s="17" t="s">
-        <v>127</v>
+        <v>55</v>
       </c>
       <c r="E313" s="16" t="s">
-        <v>49</v>
+        <v>109</v>
       </c>
       <c r="F313" s="18">
-        <v>31249</v>
+        <v>36240</v>
       </c>
       <c r="G313" s="18">
-        <v>781242</v>
+        <v>906000</v>
       </c>
       <c r="H313" s="19"/>
       <c r="I313" s="19"/>
@@ -8207,19 +8210,19 @@
         <v>8</v>
       </c>
       <c r="C314" s="16" t="s">
-        <v>126</v>
+        <v>48</v>
       </c>
       <c r="D314" s="17" t="s">
-        <v>127</v>
+        <v>49</v>
       </c>
       <c r="E314" s="16" t="s">
-        <v>50</v>
+        <v>109</v>
       </c>
       <c r="F314" s="18">
-        <v>31249</v>
+        <v>36240</v>
       </c>
       <c r="G314" s="18">
-        <v>781242</v>
+        <v>906000</v>
       </c>
       <c r="H314" s="19"/>
       <c r="I314" s="19"/>
@@ -8230,13 +8233,13 @@
         <v>8</v>
       </c>
       <c r="C315" s="16" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="D315" s="17" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="E315" s="16" t="s">
-        <v>51</v>
+        <v>109</v>
       </c>
       <c r="F315" s="18">
         <v>31249</v>
@@ -8253,13 +8256,13 @@
         <v>8</v>
       </c>
       <c r="C316" s="16" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="D316" s="17" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="E316" s="16" t="s">
-        <v>52</v>
+        <v>110</v>
       </c>
       <c r="F316" s="18">
         <v>31249</v>
@@ -8276,19 +8279,19 @@
         <v>8</v>
       </c>
       <c r="C317" s="16" t="s">
-        <v>126</v>
+        <v>54</v>
       </c>
       <c r="D317" s="17" t="s">
-        <v>127</v>
+        <v>55</v>
       </c>
       <c r="E317" s="16" t="s">
-        <v>53</v>
+        <v>110</v>
       </c>
       <c r="F317" s="18">
-        <v>31249</v>
+        <v>36240</v>
       </c>
       <c r="G317" s="18">
-        <v>781242</v>
+        <v>906000</v>
       </c>
       <c r="H317" s="19"/>
       <c r="I317" s="19"/>
@@ -8299,19 +8302,19 @@
         <v>8</v>
       </c>
       <c r="C318" s="16" t="s">
-        <v>126</v>
+        <v>48</v>
       </c>
       <c r="D318" s="17" t="s">
-        <v>127</v>
+        <v>49</v>
       </c>
       <c r="E318" s="16" t="s">
-        <v>54</v>
+        <v>110</v>
       </c>
       <c r="F318" s="18">
-        <v>31249</v>
+        <v>36240</v>
       </c>
       <c r="G318" s="18">
-        <v>781242</v>
+        <v>906000</v>
       </c>
       <c r="H318" s="19"/>
       <c r="I318" s="19"/>
@@ -8322,13 +8325,13 @@
         <v>8</v>
       </c>
       <c r="C319" s="16" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="D319" s="17" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="E319" s="16" t="s">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="F319" s="18">
         <v>31249</v>
@@ -8345,13 +8348,13 @@
         <v>8</v>
       </c>
       <c r="C320" s="16" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="D320" s="17" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="E320" s="16" t="s">
-        <v>56</v>
+        <v>111</v>
       </c>
       <c r="F320" s="18">
         <v>31249</v>
@@ -8368,19 +8371,19 @@
         <v>8</v>
       </c>
       <c r="C321" s="16" t="s">
-        <v>126</v>
+        <v>54</v>
       </c>
       <c r="D321" s="17" t="s">
-        <v>127</v>
+        <v>55</v>
       </c>
       <c r="E321" s="16" t="s">
-        <v>57</v>
+        <v>111</v>
       </c>
       <c r="F321" s="18">
-        <v>31249</v>
+        <v>36240</v>
       </c>
       <c r="G321" s="18">
-        <v>781242</v>
+        <v>906000</v>
       </c>
       <c r="H321" s="19"/>
       <c r="I321" s="19"/>
@@ -8391,19 +8394,19 @@
         <v>8</v>
       </c>
       <c r="C322" s="16" t="s">
-        <v>126</v>
+        <v>48</v>
       </c>
       <c r="D322" s="17" t="s">
-        <v>127</v>
+        <v>49</v>
       </c>
       <c r="E322" s="16" t="s">
-        <v>58</v>
+        <v>111</v>
       </c>
       <c r="F322" s="18">
-        <v>31249</v>
+        <v>36240</v>
       </c>
       <c r="G322" s="18">
-        <v>781242</v>
+        <v>906000</v>
       </c>
       <c r="H322" s="19"/>
       <c r="I322" s="19"/>
@@ -8414,13 +8417,13 @@
         <v>8</v>
       </c>
       <c r="C323" s="16" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="D323" s="17" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="E323" s="16" t="s">
-        <v>59</v>
+        <v>111</v>
       </c>
       <c r="F323" s="18">
         <v>31249</v>
@@ -8437,13 +8440,13 @@
         <v>8</v>
       </c>
       <c r="C324" s="16" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="D324" s="17" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="E324" s="16" t="s">
-        <v>60</v>
+        <v>112</v>
       </c>
       <c r="F324" s="18">
         <v>31249</v>
@@ -8460,19 +8463,19 @@
         <v>8</v>
       </c>
       <c r="C325" s="16" t="s">
-        <v>126</v>
+        <v>54</v>
       </c>
       <c r="D325" s="17" t="s">
-        <v>127</v>
+        <v>55</v>
       </c>
       <c r="E325" s="16" t="s">
-        <v>61</v>
+        <v>112</v>
       </c>
       <c r="F325" s="18">
-        <v>31249</v>
+        <v>36240</v>
       </c>
       <c r="G325" s="18">
-        <v>781242</v>
+        <v>906000</v>
       </c>
       <c r="H325" s="19"/>
       <c r="I325" s="19"/>
@@ -8483,19 +8486,19 @@
         <v>8</v>
       </c>
       <c r="C326" s="16" t="s">
-        <v>126</v>
+        <v>48</v>
       </c>
       <c r="D326" s="17" t="s">
-        <v>127</v>
+        <v>49</v>
       </c>
       <c r="E326" s="16" t="s">
-        <v>62</v>
+        <v>112</v>
       </c>
       <c r="F326" s="18">
-        <v>31249</v>
+        <v>36240</v>
       </c>
       <c r="G326" s="18">
-        <v>781242</v>
+        <v>906000</v>
       </c>
       <c r="H326" s="19"/>
       <c r="I326" s="19"/>
@@ -8506,13 +8509,13 @@
         <v>8</v>
       </c>
       <c r="C327" s="16" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="D327" s="17" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="E327" s="16" t="s">
-        <v>63</v>
+        <v>112</v>
       </c>
       <c r="F327" s="18">
         <v>31249</v>
@@ -8529,13 +8532,13 @@
         <v>8</v>
       </c>
       <c r="C328" s="16" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="D328" s="17" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="E328" s="16" t="s">
-        <v>64</v>
+        <v>113</v>
       </c>
       <c r="F328" s="18">
         <v>31249</v>
@@ -8552,19 +8555,19 @@
         <v>8</v>
       </c>
       <c r="C329" s="16" t="s">
-        <v>126</v>
+        <v>54</v>
       </c>
       <c r="D329" s="17" t="s">
-        <v>127</v>
+        <v>55</v>
       </c>
       <c r="E329" s="16" t="s">
-        <v>65</v>
+        <v>113</v>
       </c>
       <c r="F329" s="18">
-        <v>31249</v>
+        <v>36240</v>
       </c>
       <c r="G329" s="18">
-        <v>781242</v>
+        <v>906000</v>
       </c>
       <c r="H329" s="19"/>
       <c r="I329" s="19"/>
@@ -8575,19 +8578,19 @@
         <v>8</v>
       </c>
       <c r="C330" s="16" t="s">
-        <v>126</v>
+        <v>48</v>
       </c>
       <c r="D330" s="17" t="s">
-        <v>127</v>
+        <v>49</v>
       </c>
       <c r="E330" s="16" t="s">
-        <v>66</v>
+        <v>113</v>
       </c>
       <c r="F330" s="18">
-        <v>31249</v>
+        <v>36240</v>
       </c>
       <c r="G330" s="18">
-        <v>781242</v>
+        <v>906000</v>
       </c>
       <c r="H330" s="19"/>
       <c r="I330" s="19"/>
@@ -8598,13 +8601,13 @@
         <v>8</v>
       </c>
       <c r="C331" s="16" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="D331" s="17" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="E331" s="16" t="s">
-        <v>67</v>
+        <v>113</v>
       </c>
       <c r="F331" s="18">
         <v>31249</v>
@@ -8621,13 +8624,13 @@
         <v>8</v>
       </c>
       <c r="C332" s="16" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="D332" s="17" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="E332" s="16" t="s">
-        <v>68</v>
+        <v>114</v>
       </c>
       <c r="F332" s="18">
         <v>31249</v>
@@ -8644,19 +8647,19 @@
         <v>8</v>
       </c>
       <c r="C333" s="16" t="s">
-        <v>126</v>
+        <v>54</v>
       </c>
       <c r="D333" s="17" t="s">
-        <v>127</v>
+        <v>55</v>
       </c>
       <c r="E333" s="16" t="s">
-        <v>69</v>
+        <v>114</v>
       </c>
       <c r="F333" s="18">
-        <v>31249</v>
+        <v>36240</v>
       </c>
       <c r="G333" s="18">
-        <v>781242</v>
+        <v>906000</v>
       </c>
       <c r="H333" s="19"/>
       <c r="I333" s="19"/>
@@ -8667,19 +8670,19 @@
         <v>8</v>
       </c>
       <c r="C334" s="16" t="s">
-        <v>126</v>
+        <v>48</v>
       </c>
       <c r="D334" s="17" t="s">
-        <v>127</v>
+        <v>49</v>
       </c>
       <c r="E334" s="16" t="s">
-        <v>70</v>
+        <v>114</v>
       </c>
       <c r="F334" s="18">
-        <v>31249</v>
+        <v>36240</v>
       </c>
       <c r="G334" s="18">
-        <v>781242</v>
+        <v>906000</v>
       </c>
       <c r="H334" s="19"/>
       <c r="I334" s="19"/>
@@ -8690,13 +8693,13 @@
         <v>8</v>
       </c>
       <c r="C335" s="16" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="D335" s="17" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="E335" s="16" t="s">
-        <v>71</v>
+        <v>114</v>
       </c>
       <c r="F335" s="18">
         <v>31249</v>
@@ -8713,13 +8716,13 @@
         <v>8</v>
       </c>
       <c r="C336" s="16" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="D336" s="17" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="E336" s="16" t="s">
-        <v>72</v>
+        <v>115</v>
       </c>
       <c r="F336" s="18">
         <v>31249</v>
@@ -8736,19 +8739,19 @@
         <v>8</v>
       </c>
       <c r="C337" s="16" t="s">
-        <v>126</v>
+        <v>54</v>
       </c>
       <c r="D337" s="17" t="s">
-        <v>127</v>
+        <v>55</v>
       </c>
       <c r="E337" s="16" t="s">
-        <v>73</v>
+        <v>115</v>
       </c>
       <c r="F337" s="18">
-        <v>31249</v>
+        <v>36240</v>
       </c>
       <c r="G337" s="18">
-        <v>781242</v>
+        <v>906000</v>
       </c>
       <c r="H337" s="19"/>
       <c r="I337" s="19"/>
@@ -8759,19 +8762,19 @@
         <v>8</v>
       </c>
       <c r="C338" s="16" t="s">
-        <v>126</v>
+        <v>48</v>
       </c>
       <c r="D338" s="17" t="s">
-        <v>127</v>
+        <v>49</v>
       </c>
       <c r="E338" s="16" t="s">
-        <v>74</v>
+        <v>115</v>
       </c>
       <c r="F338" s="18">
-        <v>31249</v>
+        <v>36240</v>
       </c>
       <c r="G338" s="18">
-        <v>781242</v>
+        <v>906000</v>
       </c>
       <c r="H338" s="19"/>
       <c r="I338" s="19"/>
@@ -8782,13 +8785,13 @@
         <v>8</v>
       </c>
       <c r="C339" s="16" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="D339" s="17" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="E339" s="16" t="s">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="F339" s="18">
         <v>31249</v>
@@ -8805,13 +8808,13 @@
         <v>8</v>
       </c>
       <c r="C340" s="16" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="D340" s="17" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="E340" s="16" t="s">
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="F340" s="18">
         <v>31249</v>
@@ -8828,19 +8831,19 @@
         <v>8</v>
       </c>
       <c r="C341" s="16" t="s">
-        <v>126</v>
+        <v>54</v>
       </c>
       <c r="D341" s="17" t="s">
-        <v>127</v>
+        <v>55</v>
       </c>
       <c r="E341" s="16" t="s">
-        <v>77</v>
+        <v>116</v>
       </c>
       <c r="F341" s="18">
-        <v>31249</v>
+        <v>36240</v>
       </c>
       <c r="G341" s="18">
-        <v>781242</v>
+        <v>906000</v>
       </c>
       <c r="H341" s="19"/>
       <c r="I341" s="19"/>
@@ -8851,19 +8854,19 @@
         <v>8</v>
       </c>
       <c r="C342" s="16" t="s">
-        <v>126</v>
+        <v>48</v>
       </c>
       <c r="D342" s="17" t="s">
-        <v>127</v>
+        <v>49</v>
       </c>
       <c r="E342" s="16" t="s">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="F342" s="18">
-        <v>31249</v>
+        <v>36240</v>
       </c>
       <c r="G342" s="18">
-        <v>781242</v>
+        <v>906000</v>
       </c>
       <c r="H342" s="19"/>
       <c r="I342" s="19"/>
@@ -8874,13 +8877,13 @@
         <v>8</v>
       </c>
       <c r="C343" s="16" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="D343" s="17" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="E343" s="16" t="s">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="F343" s="18">
         <v>31249</v>
@@ -8897,13 +8900,13 @@
         <v>8</v>
       </c>
       <c r="C344" s="16" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="D344" s="17" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="E344" s="16" t="s">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="F344" s="18">
         <v>31249</v>
@@ -8920,19 +8923,19 @@
         <v>8</v>
       </c>
       <c r="C345" s="16" t="s">
-        <v>126</v>
+        <v>54</v>
       </c>
       <c r="D345" s="17" t="s">
-        <v>127</v>
+        <v>55</v>
       </c>
       <c r="E345" s="16" t="s">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="F345" s="18">
-        <v>31249</v>
+        <v>36240</v>
       </c>
       <c r="G345" s="18">
-        <v>781242</v>
+        <v>906000</v>
       </c>
       <c r="H345" s="19"/>
       <c r="I345" s="19"/>
@@ -8943,19 +8946,19 @@
         <v>8</v>
       </c>
       <c r="C346" s="16" t="s">
-        <v>126</v>
+        <v>48</v>
       </c>
       <c r="D346" s="17" t="s">
-        <v>127</v>
+        <v>49</v>
       </c>
       <c r="E346" s="16" t="s">
-        <v>82</v>
+        <v>117</v>
       </c>
       <c r="F346" s="18">
-        <v>31249</v>
+        <v>36240</v>
       </c>
       <c r="G346" s="18">
-        <v>781242</v>
+        <v>906000</v>
       </c>
       <c r="H346" s="19"/>
       <c r="I346" s="19"/>
@@ -8966,13 +8969,13 @@
         <v>8</v>
       </c>
       <c r="C347" s="16" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="D347" s="17" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="E347" s="16" t="s">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="F347" s="18">
         <v>31249</v>
@@ -8989,13 +8992,13 @@
         <v>8</v>
       </c>
       <c r="C348" s="16" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="D348" s="17" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="E348" s="16" t="s">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="F348" s="18">
         <v>31249</v>
@@ -9012,19 +9015,19 @@
         <v>8</v>
       </c>
       <c r="C349" s="16" t="s">
-        <v>126</v>
+        <v>54</v>
       </c>
       <c r="D349" s="17" t="s">
-        <v>127</v>
+        <v>55</v>
       </c>
       <c r="E349" s="16" t="s">
-        <v>85</v>
+        <v>118</v>
       </c>
       <c r="F349" s="18">
-        <v>31249</v>
+        <v>36240</v>
       </c>
       <c r="G349" s="18">
-        <v>781242</v>
+        <v>906000</v>
       </c>
       <c r="H349" s="19"/>
       <c r="I349" s="19"/>
@@ -9035,19 +9038,19 @@
         <v>8</v>
       </c>
       <c r="C350" s="16" t="s">
-        <v>126</v>
+        <v>48</v>
       </c>
       <c r="D350" s="17" t="s">
-        <v>127</v>
+        <v>49</v>
       </c>
       <c r="E350" s="16" t="s">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="F350" s="18">
-        <v>31249</v>
+        <v>36240</v>
       </c>
       <c r="G350" s="18">
-        <v>781242</v>
+        <v>906000</v>
       </c>
       <c r="H350" s="19"/>
       <c r="I350" s="19"/>
@@ -9058,13 +9061,13 @@
         <v>8</v>
       </c>
       <c r="C351" s="16" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="D351" s="17" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="E351" s="16" t="s">
-        <v>87</v>
+        <v>118</v>
       </c>
       <c r="F351" s="18">
         <v>31249</v>
@@ -9081,13 +9084,13 @@
         <v>8</v>
       </c>
       <c r="C352" s="16" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="D352" s="17" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="E352" s="16" t="s">
-        <v>88</v>
+        <v>119</v>
       </c>
       <c r="F352" s="18">
         <v>31249</v>
@@ -9104,19 +9107,19 @@
         <v>8</v>
       </c>
       <c r="C353" s="16" t="s">
-        <v>126</v>
+        <v>54</v>
       </c>
       <c r="D353" s="17" t="s">
-        <v>127</v>
+        <v>55</v>
       </c>
       <c r="E353" s="16" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="F353" s="18">
-        <v>31249</v>
+        <v>36240</v>
       </c>
       <c r="G353" s="18">
-        <v>781242</v>
+        <v>906000</v>
       </c>
       <c r="H353" s="19"/>
       <c r="I353" s="19"/>
@@ -9127,19 +9130,19 @@
         <v>8</v>
       </c>
       <c r="C354" s="16" t="s">
-        <v>126</v>
+        <v>48</v>
       </c>
       <c r="D354" s="17" t="s">
-        <v>127</v>
+        <v>49</v>
       </c>
       <c r="E354" s="16" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="F354" s="18">
-        <v>31249</v>
+        <v>36240</v>
       </c>
       <c r="G354" s="18">
-        <v>781242</v>
+        <v>906000</v>
       </c>
       <c r="H354" s="19"/>
       <c r="I354" s="19"/>
@@ -9150,13 +9153,13 @@
         <v>8</v>
       </c>
       <c r="C355" s="16" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="D355" s="17" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="E355" s="16" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="F355" s="18">
         <v>31249</v>
@@ -9173,13 +9176,13 @@
         <v>8</v>
       </c>
       <c r="C356" s="16" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="D356" s="17" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="E356" s="16" t="s">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="F356" s="18">
         <v>31249</v>
@@ -9196,19 +9199,19 @@
         <v>8</v>
       </c>
       <c r="C357" s="16" t="s">
-        <v>126</v>
+        <v>54</v>
       </c>
       <c r="D357" s="17" t="s">
-        <v>127</v>
+        <v>55</v>
       </c>
       <c r="E357" s="16" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="F357" s="18">
-        <v>31249</v>
+        <v>36240</v>
       </c>
       <c r="G357" s="18">
-        <v>781242</v>
+        <v>906000</v>
       </c>
       <c r="H357" s="19"/>
       <c r="I357" s="19"/>
@@ -9219,19 +9222,19 @@
         <v>8</v>
       </c>
       <c r="C358" s="16" t="s">
-        <v>126</v>
+        <v>48</v>
       </c>
       <c r="D358" s="17" t="s">
-        <v>127</v>
+        <v>49</v>
       </c>
       <c r="E358" s="16" t="s">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="F358" s="18">
-        <v>24640</v>
+        <v>36240</v>
       </c>
       <c r="G358" s="18">
-        <v>781242</v>
+        <v>906000</v>
       </c>
       <c r="H358" s="19"/>
       <c r="I358" s="19"/>
@@ -9242,16 +9245,16 @@
         <v>8</v>
       </c>
       <c r="C359" s="16" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="D359" s="17" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="E359" s="16" t="s">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="F359" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G359" s="18">
         <v>781242</v>
@@ -9265,16 +9268,16 @@
         <v>8</v>
       </c>
       <c r="C360" s="16" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="D360" s="17" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="E360" s="16" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="F360" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G360" s="18">
         <v>781242</v>
@@ -9288,19 +9291,19 @@
         <v>8</v>
       </c>
       <c r="C361" s="16" t="s">
-        <v>126</v>
+        <v>54</v>
       </c>
       <c r="D361" s="17" t="s">
-        <v>127</v>
+        <v>55</v>
       </c>
       <c r="E361" s="16" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="F361" s="18">
-        <v>24640</v>
+        <v>36240</v>
       </c>
       <c r="G361" s="18">
-        <v>781242</v>
+        <v>906000</v>
       </c>
       <c r="H361" s="19"/>
       <c r="I361" s="19"/>
@@ -9311,19 +9314,19 @@
         <v>8</v>
       </c>
       <c r="C362" s="16" t="s">
-        <v>126</v>
+        <v>48</v>
       </c>
       <c r="D362" s="17" t="s">
-        <v>127</v>
+        <v>49</v>
       </c>
       <c r="E362" s="16" t="s">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="F362" s="18">
-        <v>24640</v>
+        <v>36240</v>
       </c>
       <c r="G362" s="18">
-        <v>781242</v>
+        <v>906000</v>
       </c>
       <c r="H362" s="19"/>
       <c r="I362" s="19"/>
@@ -9334,16 +9337,16 @@
         <v>8</v>
       </c>
       <c r="C363" s="16" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="D363" s="17" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="E363" s="16" t="s">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="F363" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G363" s="18">
         <v>781242</v>
@@ -9357,16 +9360,16 @@
         <v>8</v>
       </c>
       <c r="C364" s="16" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="D364" s="17" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="E364" s="16" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="F364" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G364" s="18">
         <v>781242</v>
@@ -9380,19 +9383,19 @@
         <v>8</v>
       </c>
       <c r="C365" s="16" t="s">
-        <v>126</v>
+        <v>54</v>
       </c>
       <c r="D365" s="17" t="s">
-        <v>127</v>
+        <v>55</v>
       </c>
       <c r="E365" s="16" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="F365" s="18">
-        <v>24640</v>
+        <v>36240</v>
       </c>
       <c r="G365" s="18">
-        <v>781242</v>
+        <v>906000</v>
       </c>
       <c r="H365" s="19"/>
       <c r="I365" s="19"/>
@@ -9403,19 +9406,19 @@
         <v>8</v>
       </c>
       <c r="C366" s="16" t="s">
-        <v>126</v>
+        <v>48</v>
       </c>
       <c r="D366" s="17" t="s">
-        <v>127</v>
+        <v>49</v>
       </c>
       <c r="E366" s="16" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="F366" s="18">
-        <v>24640</v>
+        <v>36240</v>
       </c>
       <c r="G366" s="18">
-        <v>781242</v>
+        <v>906000</v>
       </c>
       <c r="H366" s="19"/>
       <c r="I366" s="19"/>
@@ -9426,19 +9429,19 @@
         <v>8</v>
       </c>
       <c r="C367" s="16" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D367" s="17" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E367" s="16" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="F367" s="18">
-        <v>24640</v>
+        <v>56940</v>
       </c>
       <c r="G367" s="18">
-        <v>781242</v>
+        <v>1423500</v>
       </c>
       <c r="H367" s="19"/>
       <c r="I367" s="19"/>
@@ -9449,16 +9452,16 @@
         <v>8</v>
       </c>
       <c r="C368" s="16" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="D368" s="17" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="E368" s="16" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="F368" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G368" s="18">
         <v>781242</v>
@@ -9472,16 +9475,16 @@
         <v>8</v>
       </c>
       <c r="C369" s="16" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="D369" s="17" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="E369" s="16" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="F369" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G369" s="18">
         <v>781242</v>
@@ -9495,19 +9498,19 @@
         <v>8</v>
       </c>
       <c r="C370" s="16" t="s">
-        <v>126</v>
+        <v>54</v>
       </c>
       <c r="D370" s="17" t="s">
-        <v>127</v>
+        <v>55</v>
       </c>
       <c r="E370" s="16" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="F370" s="18">
-        <v>24640</v>
+        <v>36240</v>
       </c>
       <c r="G370" s="18">
-        <v>781242</v>
+        <v>906000</v>
       </c>
       <c r="H370" s="19"/>
       <c r="I370" s="19"/>
@@ -9518,19 +9521,19 @@
         <v>8</v>
       </c>
       <c r="C371" s="16" t="s">
-        <v>126</v>
+        <v>48</v>
       </c>
       <c r="D371" s="17" t="s">
-        <v>127</v>
+        <v>49</v>
       </c>
       <c r="E371" s="16" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="F371" s="18">
-        <v>24640</v>
+        <v>36240</v>
       </c>
       <c r="G371" s="18">
-        <v>781242</v>
+        <v>906000</v>
       </c>
       <c r="H371" s="19"/>
       <c r="I371" s="19"/>
@@ -9541,19 +9544,19 @@
         <v>8</v>
       </c>
       <c r="C372" s="16" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D372" s="17" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E372" s="16" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="F372" s="18">
-        <v>24640</v>
+        <v>56940</v>
       </c>
       <c r="G372" s="18">
-        <v>781242</v>
+        <v>1423500</v>
       </c>
       <c r="H372" s="19"/>
       <c r="I372" s="19"/>
@@ -9564,16 +9567,16 @@
         <v>8</v>
       </c>
       <c r="C373" s="16" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="D373" s="17" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="E373" s="16" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="F373" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G373" s="18">
         <v>781242</v>
@@ -9587,16 +9590,16 @@
         <v>8</v>
       </c>
       <c r="C374" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D374" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E374" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="D374" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="E374" s="16" t="s">
-        <v>110</v>
-      </c>
       <c r="F374" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G374" s="18">
         <v>781242</v>
@@ -9610,19 +9613,19 @@
         <v>8</v>
       </c>
       <c r="C375" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D375" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E375" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="D375" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="E375" s="16" t="s">
-        <v>111</v>
-      </c>
       <c r="F375" s="18">
-        <v>24640</v>
+        <v>36240</v>
       </c>
       <c r="G375" s="18">
-        <v>781242</v>
+        <v>906000</v>
       </c>
       <c r="H375" s="19"/>
       <c r="I375" s="19"/>
@@ -9633,19 +9636,19 @@
         <v>8</v>
       </c>
       <c r="C376" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D376" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E376" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="D376" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="E376" s="16" t="s">
-        <v>112</v>
-      </c>
       <c r="F376" s="18">
-        <v>24640</v>
+        <v>36240</v>
       </c>
       <c r="G376" s="18">
-        <v>781242</v>
+        <v>906000</v>
       </c>
       <c r="H376" s="19"/>
       <c r="I376" s="19"/>
@@ -9656,19 +9659,19 @@
         <v>8</v>
       </c>
       <c r="C377" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="D377" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="E377" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="D377" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="E377" s="16" t="s">
-        <v>113</v>
-      </c>
       <c r="F377" s="18">
-        <v>24640</v>
+        <v>56940</v>
       </c>
       <c r="G377" s="18">
-        <v>781242</v>
+        <v>1423500</v>
       </c>
       <c r="H377" s="19"/>
       <c r="I377" s="19"/>
@@ -9679,16 +9682,16 @@
         <v>8</v>
       </c>
       <c r="C378" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D378" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E378" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="D378" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="E378" s="16" t="s">
-        <v>114</v>
-      </c>
       <c r="F378" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G378" s="18">
         <v>781242</v>
@@ -9702,16 +9705,16 @@
         <v>8</v>
       </c>
       <c r="C379" s="16" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="D379" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E379" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="E379" s="16" t="s">
-        <v>115</v>
-      </c>
       <c r="F379" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G379" s="18">
         <v>781242</v>
@@ -9725,19 +9728,19 @@
         <v>8</v>
       </c>
       <c r="C380" s="16" t="s">
-        <v>126</v>
+        <v>54</v>
       </c>
       <c r="D380" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E380" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="E380" s="16" t="s">
-        <v>116</v>
-      </c>
       <c r="F380" s="18">
-        <v>24640</v>
+        <v>36240</v>
       </c>
       <c r="G380" s="18">
-        <v>781242</v>
+        <v>906000</v>
       </c>
       <c r="H380" s="19"/>
       <c r="I380" s="19"/>
@@ -9748,19 +9751,19 @@
         <v>8</v>
       </c>
       <c r="C381" s="16" t="s">
-        <v>126</v>
+        <v>48</v>
       </c>
       <c r="D381" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E381" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="E381" s="16" t="s">
-        <v>117</v>
-      </c>
       <c r="F381" s="18">
-        <v>24640</v>
+        <v>36240</v>
       </c>
       <c r="G381" s="18">
-        <v>781242</v>
+        <v>906000</v>
       </c>
       <c r="H381" s="19"/>
       <c r="I381" s="19"/>
@@ -9771,75 +9774,190 @@
         <v>8</v>
       </c>
       <c r="C382" s="16" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D382" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="E382" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="E382" s="16" t="s">
-        <v>118</v>
-      </c>
       <c r="F382" s="18">
-        <v>24640</v>
+        <v>56940</v>
       </c>
       <c r="G382" s="18">
-        <v>781242</v>
+        <v>1423500</v>
       </c>
       <c r="H382" s="19"/>
       <c r="I382" s="19"/>
       <c r="J382" s="20"/>
     </row>
     <row r="383" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B383" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C383" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="D383" s="23" t="s">
+      <c r="B383" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C383" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D383" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E383" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="E383" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="F383" s="24">
-        <v>24640</v>
-      </c>
-      <c r="G383" s="24">
-        <v>781242</v>
-      </c>
-      <c r="H383" s="25"/>
-      <c r="I383" s="25"/>
-      <c r="J383" s="26"/>
+      <c r="F383" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G383" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H383" s="19"/>
+      <c r="I383" s="19"/>
+      <c r="J383" s="20"/>
+    </row>
+    <row r="384" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B384" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C384" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D384" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E384" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="F384" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G384" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H384" s="19"/>
+      <c r="I384" s="19"/>
+      <c r="J384" s="20"/>
+    </row>
+    <row r="385" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B385" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C385" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D385" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E385" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="F385" s="18">
+        <v>36240</v>
+      </c>
+      <c r="G385" s="18">
+        <v>906000</v>
+      </c>
+      <c r="H385" s="19"/>
+      <c r="I385" s="19"/>
+      <c r="J385" s="20"/>
+    </row>
+    <row r="386" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B386" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C386" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D386" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E386" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="F386" s="18">
+        <v>36240</v>
+      </c>
+      <c r="G386" s="18">
+        <v>906000</v>
+      </c>
+      <c r="H386" s="19"/>
+      <c r="I386" s="19"/>
+      <c r="J386" s="20"/>
+    </row>
+    <row r="387" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B387" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C387" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="D387" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="E387" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="F387" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G387" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H387" s="19"/>
+      <c r="I387" s="19"/>
+      <c r="J387" s="20"/>
     </row>
     <row r="388" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B388" s="32" t="s">
+      <c r="B388" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C388" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D388" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E388" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="F388" s="24">
+        <v>31249</v>
+      </c>
+      <c r="G388" s="24">
+        <v>781242</v>
+      </c>
+      <c r="H388" s="25"/>
+      <c r="I388" s="25"/>
+      <c r="J388" s="26"/>
+    </row>
+    <row r="393" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B393" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="C393" s="32"/>
+      <c r="H393" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="I393" s="1"/>
+      <c r="J393" s="1"/>
+    </row>
+    <row r="394" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B394" s="32" t="s">
         <v>137</v>
       </c>
-      <c r="C388" s="32"/>
-      <c r="H388" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="I388" s="1"/>
-      <c r="J388" s="1"/>
-    </row>
-    <row r="389" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B389" s="32" t="s">
-        <v>136</v>
-      </c>
-      <c r="C389" s="32"/>
-      <c r="H389" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="I389" s="1"/>
-      <c r="J389" s="1"/>
+      <c r="C394" s="32"/>
+      <c r="H394" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="I394" s="1"/>
+      <c r="J394" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B389:C389"/>
-    <mergeCell ref="B388:C388"/>
-    <mergeCell ref="H389:J389"/>
-    <mergeCell ref="H388:J388"/>
+    <mergeCell ref="B394:C394"/>
+    <mergeCell ref="B393:C393"/>
+    <mergeCell ref="H394:J394"/>
+    <mergeCell ref="H393:J393"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
